--- a/BRVM Excel R files/Realtime_BRVM.xlsx
+++ b/BRVM Excel R files/Realtime_BRVM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -65,10 +65,7 @@
     <t xml:space="preserve">2024-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">$2T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.59%</t>
+    <t xml:space="preserve">1,781,000,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORAC</t>
@@ -80,7 +77,7 @@
     <t xml:space="preserve">IVORY COAST</t>
   </si>
   <si>
-    <t xml:space="preserve">20.54%</t>
+    <t xml:space="preserve">1,619,545,012,500</t>
   </si>
   <si>
     <t xml:space="preserve">SGBC</t>
@@ -92,10 +89,7 @@
     <t xml:space="preserve">SOCIETE GENERALE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$551B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98%</t>
+    <t xml:space="preserve">550,666,647,000</t>
   </si>
   <si>
     <t xml:space="preserve">ECOC</t>
@@ -104,10 +98,7 @@
     <t xml:space="preserve">ECOBANK COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$373B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.73%</t>
+    <t xml:space="preserve">372,967,815,000</t>
   </si>
   <si>
     <t xml:space="preserve">ETIT</t>
@@ -119,10 +110,7 @@
     <t xml:space="preserve">TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">$326B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13%</t>
+    <t xml:space="preserve">325,513,920,996</t>
   </si>
   <si>
     <t xml:space="preserve">CBIBF</t>
@@ -134,10 +122,7 @@
     <t xml:space="preserve">BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">$282B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.57%</t>
+    <t xml:space="preserve">281,600,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SIBC</t>
@@ -146,10 +131,7 @@
     <t xml:space="preserve">SOCIETE IVOIRIENNE DE BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$280B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.55%</t>
+    <t xml:space="preserve">280,000,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORGT</t>
@@ -158,10 +140,7 @@
     <t xml:space="preserve">ORAGROUP TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">$159B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02%</t>
+    <t xml:space="preserve">159,307,496,145</t>
   </si>
   <si>
     <t xml:space="preserve">BOABF</t>
@@ -170,10 +149,7 @@
     <t xml:space="preserve">BANK OF AFRICA BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">$158B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.01%</t>
+    <t xml:space="preserve">158,400,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">NTLC</t>
@@ -185,10 +161,7 @@
     <t xml:space="preserve">NESTLE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$149B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.90%</t>
+    <t xml:space="preserve">149,416,608,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAC</t>
@@ -197,10 +170,7 @@
     <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$145B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.84%</t>
+    <t xml:space="preserve">145,000,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SLBC</t>
@@ -209,10 +179,7 @@
     <t xml:space="preserve">SOLIBRA COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$143B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.82%</t>
+    <t xml:space="preserve">143,209,308,000</t>
   </si>
   <si>
     <t xml:space="preserve">ONTBF</t>
@@ -221,6 +188,9 @@
     <t xml:space="preserve">ONATEL BURKINA FASO</t>
   </si>
   <si>
+    <t xml:space="preserve">143,140,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CFAC</t>
   </si>
   <si>
@@ -230,10 +200,7 @@
     <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$133B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.69%</t>
+    <t xml:space="preserve">133,308,346,500</t>
   </si>
   <si>
     <t xml:space="preserve">BOAB</t>
@@ -245,10 +212,7 @@
     <t xml:space="preserve">BENIN</t>
   </si>
   <si>
-    <t xml:space="preserve">$132B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.67%</t>
+    <t xml:space="preserve">131,722,003,380</t>
   </si>
   <si>
     <t xml:space="preserve">NSBC</t>
@@ -257,16 +221,16 @@
     <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">131,711,595,900</t>
+  </si>
+  <si>
     <t xml:space="preserve">BICC</t>
   </si>
   <si>
     <t xml:space="preserve">BICI COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$122B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.55%</t>
+    <t xml:space="preserve">122,500,024,500</t>
   </si>
   <si>
     <t xml:space="preserve">STBC</t>
@@ -275,10 +239,7 @@
     <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$113B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.43%</t>
+    <t xml:space="preserve">113,116,500,000</t>
   </si>
   <si>
     <t xml:space="preserve">PALC</t>
@@ -290,10 +251,7 @@
     <t xml:space="preserve">PALM COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$105B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.33%</t>
+    <t xml:space="preserve">104,659,569,320</t>
   </si>
   <si>
     <t xml:space="preserve">TTLC</t>
@@ -302,10 +260,7 @@
     <t xml:space="preserve">TOTAL COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$104B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.31%</t>
+    <t xml:space="preserve">103,571,832,000</t>
   </si>
   <si>
     <t xml:space="preserve">CIEC</t>
@@ -314,10 +269,7 @@
     <t xml:space="preserve">CIE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$92B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.17%</t>
+    <t xml:space="preserve">92,400,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SDSC</t>
@@ -329,10 +281,7 @@
     <t xml:space="preserve">BOLLORE TRANSPORT &amp; LOGISTICS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$83B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.05%</t>
+    <t xml:space="preserve">83,013,832,500</t>
   </si>
   <si>
     <t xml:space="preserve">SMBC</t>
@@ -341,10 +290,7 @@
     <t xml:space="preserve">SMB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$80B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.02%</t>
+    <t xml:space="preserve">80,212,608,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAS</t>
@@ -353,10 +299,7 @@
     <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">$77B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97%</t>
+    <t xml:space="preserve">76,680,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SOGC</t>
@@ -365,10 +308,7 @@
     <t xml:space="preserve">SOGB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$76B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96%</t>
+    <t xml:space="preserve">75,606,440,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAN</t>
@@ -380,10 +320,7 @@
     <t xml:space="preserve">NIGER</t>
   </si>
   <si>
-    <t xml:space="preserve">$75B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95%</t>
+    <t xml:space="preserve">75,075,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">TTLS</t>
@@ -392,10 +329,7 @@
     <t xml:space="preserve">TOTAL SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">$74B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94%</t>
+    <t xml:space="preserve">74,277,156,000</t>
   </si>
   <si>
     <t xml:space="preserve">SPHC</t>
@@ -404,10 +338,7 @@
     <t xml:space="preserve">SAPH COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$58B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73%</t>
+    <t xml:space="preserve">57,761,091,300</t>
   </si>
   <si>
     <t xml:space="preserve">UNLC</t>
@@ -416,10 +347,7 @@
     <t xml:space="preserve">UNILEVER COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$55B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70%</t>
+    <t xml:space="preserve">55,100,400,000</t>
   </si>
   <si>
     <t xml:space="preserve">SHEC</t>
@@ -428,10 +356,7 @@
     <t xml:space="preserve">VIVO ENERGY COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$48B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61%</t>
+    <t xml:space="preserve">48,195,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SDCC</t>
@@ -440,10 +365,7 @@
     <t xml:space="preserve">SODE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$40B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50%</t>
+    <t xml:space="preserve">39,510,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAM</t>
@@ -455,10 +377,7 @@
     <t xml:space="preserve">MALI</t>
   </si>
   <si>
-    <t xml:space="preserve">$27B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34%</t>
+    <t xml:space="preserve">26,992,500,000</t>
   </si>
   <si>
     <t xml:space="preserve">FTSC</t>
@@ -467,16 +386,16 @@
     <t xml:space="preserve">FILTISAC COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">26,797,106,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRSC</t>
   </si>
   <si>
     <t xml:space="preserve">TRACTAFRIC MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$17B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22%</t>
+    <t xml:space="preserve">17,254,400,000</t>
   </si>
   <si>
     <t xml:space="preserve">ABJC</t>
@@ -485,10 +404,7 @@
     <t xml:space="preserve">SERVAIR ABIDJAN  COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$14B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18%</t>
+    <t xml:space="preserve">14,021,920,000</t>
   </si>
   <si>
     <t xml:space="preserve">UNXC</t>
@@ -497,10 +413,7 @@
     <t xml:space="preserve">UNIWAX COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14%</t>
+    <t xml:space="preserve">11,101,250,000</t>
   </si>
   <si>
     <t xml:space="preserve">STAC</t>
@@ -512,16 +425,16 @@
     <t xml:space="preserve">SETAO COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">10,819,200,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCRC</t>
   </si>
   <si>
     <t xml:space="preserve">SUCRIVOIRE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$9B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11%</t>
+    <t xml:space="preserve">8,820,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BNBC</t>
@@ -530,10 +443,7 @@
     <t xml:space="preserve">BERNABE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$8B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10%</t>
+    <t xml:space="preserve">7,551,360,000</t>
   </si>
   <si>
     <t xml:space="preserve">CABC</t>
@@ -542,10 +452,7 @@
     <t xml:space="preserve">SICABLE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">$6B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08%</t>
+    <t xml:space="preserve">6,008,800,000</t>
   </si>
 </sst>
 </file>
@@ -949,22 +856,22 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
+      <c r="L2" t="n">
+        <v>22.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -985,24 +892,24 @@
         <v>452</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="L3" t="n">
+        <v>20.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -1023,24 +930,24 @@
         <v>1859</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1061,24 +968,24 @@
         <v>587</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1099,24 +1006,24 @@
         <v>353</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1137,24 +1044,24 @@
         <v>77</v>
       </c>
       <c r="K7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1175,24 +1082,24 @@
         <v>3099</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1213,24 +1120,24 @@
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1251,24 +1158,24 @@
         <v>767</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1289,24 +1196,24 @@
         <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1327,24 +1234,24 @@
         <v>970</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1365,24 +1272,24 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
+        <v>55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1403,24 +1310,24 @@
         <v>42485</v>
       </c>
       <c r="K14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1441,24 +1348,24 @@
         <v>2005</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
+        <v>62</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1479,24 +1386,24 @@
         <v>596</v>
       </c>
       <c r="K16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" t="s">
-        <v>78</v>
+        <v>66</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1517,24 +1424,24 @@
         <v>127</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" t="s">
-        <v>78</v>
+        <v>69</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1555,24 +1462,24 @@
         <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>83</v>
-      </c>
-      <c r="L18" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -1593,24 +1500,24 @@
         <v>10190</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" t="s">
-        <v>88</v>
+        <v>75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1631,24 +1538,24 @@
         <v>4587</v>
       </c>
       <c r="K20" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" t="s">
-        <v>93</v>
+        <v>79</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1669,24 +1576,24 @@
         <v>687</v>
       </c>
       <c r="K21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.31</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1707,24 +1614,24 @@
         <v>3749</v>
       </c>
       <c r="K22" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1745,24 +1652,24 @@
         <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
-      </c>
-      <c r="L23" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1783,21 +1690,21 @@
         <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" t="s">
-        <v>110</v>
+        <v>92</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1821,24 +1728,24 @@
         <v>2108</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
-      </c>
-      <c r="L25" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1859,24 +1766,24 @@
         <v>71</v>
       </c>
       <c r="K26" t="s">
-        <v>117</v>
-      </c>
-      <c r="L26" t="s">
-        <v>118</v>
+        <v>98</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1897,21 +1804,21 @@
         <v>5616</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1935,24 +1842,24 @@
         <v>77</v>
       </c>
       <c r="K28" t="s">
-        <v>126</v>
-      </c>
-      <c r="L28" t="s">
-        <v>127</v>
+        <v>105</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1973,24 +1880,24 @@
         <v>1010</v>
       </c>
       <c r="K29" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" t="s">
-        <v>131</v>
+        <v>108</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -2011,24 +1918,24 @@
         <v>3</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" t="s">
-        <v>135</v>
+        <v>111</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -2049,24 +1956,24 @@
         <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
-      </c>
-      <c r="L31" t="s">
-        <v>139</v>
+        <v>114</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -2087,24 +1994,24 @@
         <v>49</v>
       </c>
       <c r="K32" t="s">
-        <v>142</v>
-      </c>
-      <c r="L32" t="s">
-        <v>143</v>
+        <v>117</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -2125,24 +2032,24 @@
         <v>947</v>
       </c>
       <c r="K33" t="s">
-        <v>147</v>
-      </c>
-      <c r="L33" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -2163,24 +2070,24 @@
         <v>4041</v>
       </c>
       <c r="K34" t="s">
-        <v>147</v>
-      </c>
-      <c r="L34" t="s">
-        <v>148</v>
+        <v>124</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2201,24 +2108,24 @@
         <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
-      </c>
-      <c r="L35" t="s">
-        <v>154</v>
+        <v>127</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -2239,24 +2146,24 @@
         <v>280</v>
       </c>
       <c r="K36" t="s">
-        <v>157</v>
-      </c>
-      <c r="L36" t="s">
-        <v>158</v>
+        <v>130</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -2277,24 +2184,24 @@
         <v>181</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
-      </c>
-      <c r="L37" t="s">
-        <v>162</v>
+        <v>133</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2315,24 +2222,24 @@
         <v>5</v>
       </c>
       <c r="K38" t="s">
-        <v>161</v>
-      </c>
-      <c r="L38" t="s">
-        <v>162</v>
+        <v>137</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2353,24 +2260,24 @@
         <v>5617</v>
       </c>
       <c r="K39" t="s">
-        <v>168</v>
-      </c>
-      <c r="L39" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2391,24 +2298,24 @@
         <v>15</v>
       </c>
       <c r="K40" t="s">
-        <v>172</v>
-      </c>
-      <c r="L40" t="s">
-        <v>173</v>
+        <v>143</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -2429,10 +2336,10 @@
         <v>400</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
-      </c>
-      <c r="L41" t="s">
-        <v>177</v>
+        <v>146</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/BRVM Excel R files/Realtime_BRVM.xlsx
+++ b/BRVM Excel R files/Realtime_BRVM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -65,9 +65,6 @@
     <t xml:space="preserve">2024-03-15</t>
   </si>
   <si>
-    <t xml:space="preserve">1,781,000,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORAC</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t xml:space="preserve">IVORY COAST</t>
   </si>
   <si>
-    <t xml:space="preserve">1,619,545,012,500</t>
-  </si>
-  <si>
     <t xml:space="preserve">SGBC</t>
   </si>
   <si>
@@ -89,18 +83,12 @@
     <t xml:space="preserve">SOCIETE GENERALE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">550,666,647,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ECOC</t>
   </si>
   <si>
     <t xml:space="preserve">ECOBANK COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">372,967,815,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ETIT</t>
   </si>
   <si>
@@ -110,9 +98,6 @@
     <t xml:space="preserve">TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">325,513,920,996</t>
-  </si>
-  <si>
     <t xml:space="preserve">CBIBF</t>
   </si>
   <si>
@@ -122,36 +107,24 @@
     <t xml:space="preserve">BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">281,600,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SIBC</t>
   </si>
   <si>
     <t xml:space="preserve">SOCIETE IVOIRIENNE DE BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">280,000,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORGT</t>
   </si>
   <si>
     <t xml:space="preserve">ORAGROUP TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">159,307,496,145</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOABF</t>
   </si>
   <si>
     <t xml:space="preserve">BANK OF AFRICA BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">158,400,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">NTLC</t>
   </si>
   <si>
@@ -161,36 +134,24 @@
     <t xml:space="preserve">NESTLE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">149,416,608,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOAC</t>
   </si>
   <si>
     <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">145,000,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SLBC</t>
   </si>
   <si>
     <t xml:space="preserve">SOLIBRA COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">143,209,308,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ONTBF</t>
   </si>
   <si>
     <t xml:space="preserve">ONATEL BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">143,140,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">CFAC</t>
   </si>
   <si>
@@ -200,9 +161,6 @@
     <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">133,308,346,500</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOAB</t>
   </si>
   <si>
@@ -212,36 +170,24 @@
     <t xml:space="preserve">BENIN</t>
   </si>
   <si>
-    <t xml:space="preserve">131,722,003,380</t>
-  </si>
-  <si>
     <t xml:space="preserve">NSBC</t>
   </si>
   <si>
     <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">131,711,595,900</t>
-  </si>
-  <si>
     <t xml:space="preserve">BICC</t>
   </si>
   <si>
     <t xml:space="preserve">BICI COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">122,500,024,500</t>
-  </si>
-  <si>
     <t xml:space="preserve">STBC</t>
   </si>
   <si>
     <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">113,116,500,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PALC</t>
   </si>
   <si>
@@ -251,27 +197,18 @@
     <t xml:space="preserve">PALM COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">104,659,569,320</t>
-  </si>
-  <si>
     <t xml:space="preserve">TTLC</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">103,571,832,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">CIEC</t>
   </si>
   <si>
     <t xml:space="preserve">CIE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">92,400,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDSC</t>
   </si>
   <si>
@@ -281,36 +218,24 @@
     <t xml:space="preserve">BOLLORE TRANSPORT &amp; LOGISTICS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">83,013,832,500</t>
-  </si>
-  <si>
     <t xml:space="preserve">SMBC</t>
   </si>
   <si>
     <t xml:space="preserve">SMB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">80,212,608,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOAS</t>
   </si>
   <si>
     <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">76,680,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SOGC</t>
   </si>
   <si>
     <t xml:space="preserve">SOGB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">75,606,440,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOAN</t>
   </si>
   <si>
@@ -320,54 +245,36 @@
     <t xml:space="preserve">NIGER</t>
   </si>
   <si>
-    <t xml:space="preserve">75,075,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">TTLS</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">74,277,156,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPHC</t>
   </si>
   <si>
     <t xml:space="preserve">SAPH COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">57,761,091,300</t>
-  </si>
-  <si>
     <t xml:space="preserve">UNLC</t>
   </si>
   <si>
     <t xml:space="preserve">UNILEVER COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">55,100,400,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SHEC</t>
   </si>
   <si>
     <t xml:space="preserve">VIVO ENERGY COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">48,195,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SDCC</t>
   </si>
   <si>
     <t xml:space="preserve">SODE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">39,510,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">BOAM</t>
   </si>
   <si>
@@ -377,45 +284,30 @@
     <t xml:space="preserve">MALI</t>
   </si>
   <si>
-    <t xml:space="preserve">26,992,500,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">FTSC</t>
   </si>
   <si>
     <t xml:space="preserve">FILTISAC COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">26,797,106,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRSC</t>
   </si>
   <si>
     <t xml:space="preserve">TRACTAFRIC MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">17,254,400,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABJC</t>
   </si>
   <si>
     <t xml:space="preserve">SERVAIR ABIDJAN  COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">14,021,920,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">UNXC</t>
   </si>
   <si>
     <t xml:space="preserve">UNIWAX COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">11,101,250,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">STAC</t>
   </si>
   <si>
@@ -425,34 +317,22 @@
     <t xml:space="preserve">SETAO COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">10,819,200,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">SCRC</t>
   </si>
   <si>
     <t xml:space="preserve">SUCRIVOIRE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">8,820,000,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">BNBC</t>
   </si>
   <si>
     <t xml:space="preserve">BERNABE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">7,551,360,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">CABC</t>
   </si>
   <si>
     <t xml:space="preserve">SICABLE COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,008,800,000</t>
   </si>
 </sst>
 </file>
@@ -853,8 +733,8 @@
       <c r="J2" t="n">
         <v>9023</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
+      <c r="K2" t="n">
+        <v>1781000000000</v>
       </c>
       <c r="L2" t="n">
         <v>22.59</v>
@@ -862,16 +742,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -891,8 +771,8 @@
       <c r="J3" t="n">
         <v>452</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
+      <c r="K3" t="n">
+        <v>1619545012500</v>
       </c>
       <c r="L3" t="n">
         <v>20.54</v>
@@ -900,16 +780,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -929,8 +809,8 @@
       <c r="J4" t="n">
         <v>1859</v>
       </c>
-      <c r="K4" t="s">
-        <v>25</v>
+      <c r="K4" t="n">
+        <v>550666647000</v>
       </c>
       <c r="L4" t="n">
         <v>6.98</v>
@@ -938,16 +818,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -967,8 +847,8 @@
       <c r="J5" t="n">
         <v>587</v>
       </c>
-      <c r="K5" t="s">
-        <v>28</v>
+      <c r="K5" t="n">
+        <v>372967815000</v>
       </c>
       <c r="L5" t="n">
         <v>4.73</v>
@@ -976,16 +856,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -1005,8 +885,8 @@
       <c r="J6" t="n">
         <v>353</v>
       </c>
-      <c r="K6" t="s">
-        <v>32</v>
+      <c r="K6" t="n">
+        <v>325513920996</v>
       </c>
       <c r="L6" t="n">
         <v>4.13</v>
@@ -1014,16 +894,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -1043,8 +923,8 @@
       <c r="J7" t="n">
         <v>77</v>
       </c>
-      <c r="K7" t="s">
-        <v>36</v>
+      <c r="K7" t="n">
+        <v>281600000000</v>
       </c>
       <c r="L7" t="n">
         <v>3.57</v>
@@ -1052,16 +932,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -1081,8 +961,8 @@
       <c r="J8" t="n">
         <v>3099</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
+      <c r="K8" t="n">
+        <v>280000000000</v>
       </c>
       <c r="L8" t="n">
         <v>3.55</v>
@@ -1090,16 +970,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -1119,8 +999,8 @@
       <c r="J9" t="n">
         <v>10</v>
       </c>
-      <c r="K9" t="s">
-        <v>42</v>
+      <c r="K9" t="n">
+        <v>159307496145</v>
       </c>
       <c r="L9" t="n">
         <v>2.02</v>
@@ -1128,16 +1008,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1157,8 +1037,8 @@
       <c r="J10" t="n">
         <v>767</v>
       </c>
-      <c r="K10" t="s">
-        <v>45</v>
+      <c r="K10" t="n">
+        <v>158400000000</v>
       </c>
       <c r="L10" t="n">
         <v>2.01</v>
@@ -1166,16 +1046,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1195,8 +1075,8 @@
       <c r="J11" t="n">
         <v>47</v>
       </c>
-      <c r="K11" t="s">
-        <v>49</v>
+      <c r="K11" t="n">
+        <v>149416608000</v>
       </c>
       <c r="L11" t="n">
         <v>1.9</v>
@@ -1204,16 +1084,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -1233,8 +1113,8 @@
       <c r="J12" t="n">
         <v>970</v>
       </c>
-      <c r="K12" t="s">
-        <v>52</v>
+      <c r="K12" t="n">
+        <v>145000000000</v>
       </c>
       <c r="L12" t="n">
         <v>1.84</v>
@@ -1242,16 +1122,16 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1271,8 +1151,8 @@
       <c r="J13" t="n">
         <v>20</v>
       </c>
-      <c r="K13" t="s">
-        <v>55</v>
+      <c r="K13" t="n">
+        <v>143209308000</v>
       </c>
       <c r="L13" t="n">
         <v>1.82</v>
@@ -1280,16 +1160,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -1309,8 +1189,8 @@
       <c r="J14" t="n">
         <v>42485</v>
       </c>
-      <c r="K14" t="s">
-        <v>58</v>
+      <c r="K14" t="n">
+        <v>143140000000</v>
       </c>
       <c r="L14" t="n">
         <v>1.82</v>
@@ -1318,16 +1198,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
@@ -1347,8 +1227,8 @@
       <c r="J15" t="n">
         <v>2005</v>
       </c>
-      <c r="K15" t="s">
-        <v>62</v>
+      <c r="K15" t="n">
+        <v>133308346500</v>
       </c>
       <c r="L15" t="n">
         <v>1.69</v>
@@ -1356,16 +1236,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
@@ -1385,8 +1265,8 @@
       <c r="J16" t="n">
         <v>596</v>
       </c>
-      <c r="K16" t="s">
-        <v>66</v>
+      <c r="K16" t="n">
+        <v>131722003380</v>
       </c>
       <c r="L16" t="n">
         <v>1.67</v>
@@ -1394,16 +1274,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
@@ -1423,8 +1303,8 @@
       <c r="J17" t="n">
         <v>127</v>
       </c>
-      <c r="K17" t="s">
-        <v>69</v>
+      <c r="K17" t="n">
+        <v>131711595900</v>
       </c>
       <c r="L17" t="n">
         <v>1.67</v>
@@ -1432,16 +1312,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
@@ -1461,8 +1341,8 @@
       <c r="J18" t="n">
         <v>22</v>
       </c>
-      <c r="K18" t="s">
-        <v>72</v>
+      <c r="K18" t="n">
+        <v>122500024500</v>
       </c>
       <c r="L18" t="n">
         <v>1.55</v>
@@ -1470,16 +1350,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
@@ -1499,8 +1379,8 @@
       <c r="J19" t="n">
         <v>10190</v>
       </c>
-      <c r="K19" t="s">
-        <v>75</v>
+      <c r="K19" t="n">
+        <v>113116500000</v>
       </c>
       <c r="L19" t="n">
         <v>1.43</v>
@@ -1508,16 +1388,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
@@ -1537,8 +1417,8 @@
       <c r="J20" t="n">
         <v>4587</v>
       </c>
-      <c r="K20" t="s">
-        <v>79</v>
+      <c r="K20" t="n">
+        <v>104659569320</v>
       </c>
       <c r="L20" t="n">
         <v>1.33</v>
@@ -1546,16 +1426,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
@@ -1575,8 +1455,8 @@
       <c r="J21" t="n">
         <v>687</v>
       </c>
-      <c r="K21" t="s">
-        <v>82</v>
+      <c r="K21" t="n">
+        <v>103571832000</v>
       </c>
       <c r="L21" t="n">
         <v>1.31</v>
@@ -1584,16 +1464,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
@@ -1613,8 +1493,8 @@
       <c r="J22" t="n">
         <v>3749</v>
       </c>
-      <c r="K22" t="s">
-        <v>85</v>
+      <c r="K22" t="n">
+        <v>92400000000</v>
       </c>
       <c r="L22" t="n">
         <v>1.17</v>
@@ -1622,16 +1502,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
@@ -1651,8 +1531,8 @@
       <c r="J23" t="n">
         <v>25</v>
       </c>
-      <c r="K23" t="s">
-        <v>89</v>
+      <c r="K23" t="n">
+        <v>83013832500</v>
       </c>
       <c r="L23" t="n">
         <v>1.05</v>
@@ -1660,16 +1540,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
@@ -1689,8 +1569,8 @@
       <c r="J24" t="n">
         <v>168</v>
       </c>
-      <c r="K24" t="s">
-        <v>92</v>
+      <c r="K24" t="n">
+        <v>80212608000</v>
       </c>
       <c r="L24" t="n">
         <v>1.02</v>
@@ -1698,13 +1578,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1727,8 +1607,8 @@
       <c r="J25" t="n">
         <v>2108</v>
       </c>
-      <c r="K25" t="s">
-        <v>95</v>
+      <c r="K25" t="n">
+        <v>76680000000</v>
       </c>
       <c r="L25" t="n">
         <v>0.97</v>
@@ -1736,16 +1616,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
@@ -1765,8 +1645,8 @@
       <c r="J26" t="n">
         <v>71</v>
       </c>
-      <c r="K26" t="s">
-        <v>98</v>
+      <c r="K26" t="n">
+        <v>75606440000</v>
       </c>
       <c r="L26" t="n">
         <v>0.96</v>
@@ -1774,16 +1654,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -1803,8 +1683,8 @@
       <c r="J27" t="n">
         <v>5616</v>
       </c>
-      <c r="K27" t="s">
-        <v>102</v>
+      <c r="K27" t="n">
+        <v>75075000000</v>
       </c>
       <c r="L27" t="n">
         <v>0.95</v>
@@ -1812,13 +1692,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1841,8 +1721,8 @@
       <c r="J28" t="n">
         <v>77</v>
       </c>
-      <c r="K28" t="s">
-        <v>105</v>
+      <c r="K28" t="n">
+        <v>74277156000</v>
       </c>
       <c r="L28" t="n">
         <v>0.94</v>
@@ -1850,16 +1730,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
@@ -1879,8 +1759,8 @@
       <c r="J29" t="n">
         <v>1010</v>
       </c>
-      <c r="K29" t="s">
-        <v>108</v>
+      <c r="K29" t="n">
+        <v>57761091300</v>
       </c>
       <c r="L29" t="n">
         <v>0.73</v>
@@ -1888,16 +1768,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
@@ -1917,8 +1797,8 @@
       <c r="J30" t="n">
         <v>3</v>
       </c>
-      <c r="K30" t="s">
-        <v>111</v>
+      <c r="K30" t="n">
+        <v>55100400000</v>
       </c>
       <c r="L30" t="n">
         <v>0.7</v>
@@ -1926,16 +1806,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
@@ -1955,8 +1835,8 @@
       <c r="J31" t="n">
         <v>130</v>
       </c>
-      <c r="K31" t="s">
-        <v>114</v>
+      <c r="K31" t="n">
+        <v>48195000000</v>
       </c>
       <c r="L31" t="n">
         <v>0.61</v>
@@ -1964,16 +1844,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
@@ -1993,8 +1873,8 @@
       <c r="J32" t="n">
         <v>49</v>
       </c>
-      <c r="K32" t="s">
-        <v>117</v>
+      <c r="K32" t="n">
+        <v>39510000000</v>
       </c>
       <c r="L32" t="n">
         <v>0.5</v>
@@ -2002,16 +1882,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
@@ -2031,8 +1911,8 @@
       <c r="J33" t="n">
         <v>947</v>
       </c>
-      <c r="K33" t="s">
-        <v>121</v>
+      <c r="K33" t="n">
+        <v>26992500000</v>
       </c>
       <c r="L33" t="n">
         <v>0.34</v>
@@ -2040,16 +1920,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
@@ -2069,8 +1949,8 @@
       <c r="J34" t="n">
         <v>4041</v>
       </c>
-      <c r="K34" t="s">
-        <v>124</v>
+      <c r="K34" t="n">
+        <v>26797106000</v>
       </c>
       <c r="L34" t="n">
         <v>0.34</v>
@@ -2078,16 +1958,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
@@ -2107,8 +1987,8 @@
       <c r="J35" t="n">
         <v>11</v>
       </c>
-      <c r="K35" t="s">
-        <v>127</v>
+      <c r="K35" t="n">
+        <v>17254400000</v>
       </c>
       <c r="L35" t="n">
         <v>0.22</v>
@@ -2116,16 +1996,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
         <v>16</v>
@@ -2145,8 +2025,8 @@
       <c r="J36" t="n">
         <v>280</v>
       </c>
-      <c r="K36" t="s">
-        <v>130</v>
+      <c r="K36" t="n">
+        <v>14021920000</v>
       </c>
       <c r="L36" t="n">
         <v>0.18</v>
@@ -2154,16 +2034,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
@@ -2183,8 +2063,8 @@
       <c r="J37" t="n">
         <v>181</v>
       </c>
-      <c r="K37" t="s">
-        <v>133</v>
+      <c r="K37" t="n">
+        <v>11101250000</v>
       </c>
       <c r="L37" t="n">
         <v>0.14</v>
@@ -2192,16 +2072,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
@@ -2221,8 +2101,8 @@
       <c r="J38" t="n">
         <v>5</v>
       </c>
-      <c r="K38" t="s">
-        <v>137</v>
+      <c r="K38" t="n">
+        <v>10819200000</v>
       </c>
       <c r="L38" t="n">
         <v>0.14</v>
@@ -2230,16 +2110,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
@@ -2259,8 +2139,8 @@
       <c r="J39" t="n">
         <v>5617</v>
       </c>
-      <c r="K39" t="s">
-        <v>140</v>
+      <c r="K39" t="n">
+        <v>8820000000</v>
       </c>
       <c r="L39" t="n">
         <v>0.11</v>
@@ -2268,16 +2148,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
@@ -2297,8 +2177,8 @@
       <c r="J40" t="n">
         <v>15</v>
       </c>
-      <c r="K40" t="s">
-        <v>143</v>
+      <c r="K40" t="n">
+        <v>7551360000</v>
       </c>
       <c r="L40" t="n">
         <v>0.1</v>
@@ -2306,16 +2186,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
         <v>16</v>
@@ -2335,8 +2215,8 @@
       <c r="J41" t="n">
         <v>400</v>
       </c>
-      <c r="K41" t="s">
-        <v>146</v>
+      <c r="K41" t="n">
+        <v>6008800000</v>
       </c>
       <c r="L41" t="n">
         <v>0.08</v>

--- a/BRVM Excel R files/Realtime_BRVM.xlsx
+++ b/BRVM Excel R files/Realtime_BRVM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Market Cap</t>
   </si>
   <si>
-    <t xml:space="preserve">Market Cap (%)</t>
+    <t xml:space="preserve">Market Percentage</t>
   </si>
   <si>
     <t xml:space="preserve">SNTS</t>
@@ -62,7 +62,10 @@
     <t xml:space="preserve">SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-15</t>
+    <t xml:space="preserve">2024-03-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,789,500,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORAC</t>
@@ -74,6 +77,9 @@
     <t xml:space="preserve">IVORY COAST</t>
   </si>
   <si>
+    <t xml:space="preserve">1,625,571,226,500</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGBC</t>
   </si>
   <si>
@@ -83,12 +89,18 @@
     <t xml:space="preserve">SOCIETE GENERALE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">549,422,202,600</t>
+  </si>
+  <si>
     <t xml:space="preserve">ECOC</t>
   </si>
   <si>
     <t xml:space="preserve">ECOBANK COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">373,793,574,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETIT</t>
   </si>
   <si>
@@ -98,6 +110,18 @@
     <t xml:space="preserve">TOGO</t>
   </si>
   <si>
+    <t xml:space="preserve">325,513,920,996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCIETE IVOIRIENNE DE BANQUE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283,250,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CBIBF</t>
   </si>
   <si>
@@ -107,10 +131,16 @@
     <t xml:space="preserve">BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">SIBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCIETE IVOIRIENNE DE BANQUE COTE D'IVOIRE</t>
+    <t xml:space="preserve">280,000,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOABF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160,380,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORGT</t>
@@ -119,10 +149,16 @@
     <t xml:space="preserve">ORAGROUP TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">BOABF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA BURKINA FASO</t>
+    <t xml:space="preserve">152,713,068,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONTBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONATEL BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150,960,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">NTLC</t>
@@ -134,31 +170,37 @@
     <t xml:space="preserve">NESTLE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">149,195,904,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">145,097,520,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOAC</t>
   </si>
   <si>
     <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">SLBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOLIBRA COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONTBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONATEL BURKINA FASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISTRIBUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
+    <t xml:space="preserve">143,600,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133,566,688,800</t>
   </si>
   <si>
     <t xml:space="preserve">BOAB</t>
@@ -170,10 +212,16 @@
     <t xml:space="preserve">BENIN</t>
   </si>
   <si>
-    <t xml:space="preserve">NSBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
+    <t xml:space="preserve">131,722,003,380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">125,236,125,000</t>
   </si>
   <si>
     <t xml:space="preserve">BICC</t>
@@ -182,10 +230,7 @@
     <t xml:space="preserve">BICI COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">STBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
+    <t xml:space="preserve">122,500,024,500</t>
   </si>
   <si>
     <t xml:space="preserve">PALC</t>
@@ -197,18 +242,27 @@
     <t xml:space="preserve">PALM COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">108,215,212,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">TTLC</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">107,034,720,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CIEC</t>
   </si>
   <si>
     <t xml:space="preserve">CIE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">89,600,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDSC</t>
   </si>
   <si>
@@ -218,31 +272,46 @@
     <t xml:space="preserve">BOLLORE TRANSPORT &amp; LOGISTICS COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">84,102,538,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOGC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOGB COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83,923,148,400</t>
+  </si>
+  <si>
     <t xml:space="preserve">SMBC</t>
   </si>
   <si>
     <t xml:space="preserve">SMB COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">80,095,680,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA NIGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75,335,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOAS</t>
   </si>
   <si>
     <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">SOGC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOGB COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA NIGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIGER</t>
+    <t xml:space="preserve">74,040,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">TTLS</t>
@@ -251,16 +320,16 @@
     <t xml:space="preserve">TOTAL SENEGAL</t>
   </si>
   <si>
+    <t xml:space="preserve">73,299,825,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SPHC</t>
   </si>
   <si>
     <t xml:space="preserve">SAPH COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">UNLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNILEVER COTE D'IVOIRE</t>
+    <t xml:space="preserve">61,339,212,000</t>
   </si>
   <si>
     <t xml:space="preserve">SHEC</t>
@@ -269,12 +338,18 @@
     <t xml:space="preserve">VIVO ENERGY COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">50,400,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDCC</t>
   </si>
   <si>
     <t xml:space="preserve">SODE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">39,555,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOAM</t>
   </si>
   <si>
@@ -284,37 +359,43 @@
     <t xml:space="preserve">MALI</t>
   </si>
   <si>
+    <t xml:space="preserve">27,358,500,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FTSC</t>
   </si>
   <si>
     <t xml:space="preserve">FILTISAC COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">26,797,106,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRSC</t>
   </si>
   <si>
     <t xml:space="preserve">TRACTAFRIC MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">20,480,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABJC</t>
   </si>
   <si>
     <t xml:space="preserve">SERVAIR ABIDJAN  COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">13,967,360,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNXC</t>
   </si>
   <si>
     <t xml:space="preserve">UNIWAX COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">STAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTHER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SETAO COTE D'IVOIRE</t>
+    <t xml:space="preserve">11,101,250,000</t>
   </si>
   <si>
     <t xml:space="preserve">SCRC</t>
@@ -323,16 +404,43 @@
     <t xml:space="preserve">SUCRIVOIRE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">8,820,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEI-CEDA COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,553,102,750</t>
+  </si>
+  <si>
     <t xml:space="preserve">BNBC</t>
   </si>
   <si>
     <t xml:space="preserve">BERNABE COTE D'IVOIRE</t>
   </si>
   <si>
+    <t xml:space="preserve">8,147,520,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CABC</t>
   </si>
   <si>
     <t xml:space="preserve">SICABLE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,393,600,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICOR COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,190,000,000</t>
   </si>
 </sst>
 </file>
@@ -719,48 +827,48 @@
         <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>17895</v>
+        <v>17850</v>
       </c>
       <c r="G2" t="n">
-        <v>17895</v>
+        <v>17885</v>
       </c>
       <c r="H2" t="n">
-        <v>17800</v>
+        <v>17860</v>
       </c>
       <c r="I2" t="n">
-        <v>17810</v>
+        <v>17885</v>
       </c>
       <c r="J2" t="n">
-        <v>9023</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1781000000000</v>
+        <v>1834</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
       </c>
       <c r="L2" t="n">
-        <v>22.59</v>
+        <v>22.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>10760</v>
+        <v>10800</v>
       </c>
       <c r="G3" t="n">
-        <v>10750</v>
+        <v>10800</v>
       </c>
       <c r="H3" t="n">
         <v>10750</v>
@@ -769,27 +877,27 @@
         <v>10750</v>
       </c>
       <c r="J3" t="n">
-        <v>452</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1619545012500</v>
+        <v>1563</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
       <c r="L3" t="n">
-        <v>20.54</v>
+        <v>20.47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -798,7 +906,7 @@
         <v>17650</v>
       </c>
       <c r="G4" t="n">
-        <v>17700</v>
+        <v>17750</v>
       </c>
       <c r="H4" t="n">
         <v>17650</v>
@@ -807,65 +915,65 @@
         <v>17700</v>
       </c>
       <c r="J4" t="n">
-        <v>1859</v>
-      </c>
-      <c r="K4" t="n">
-        <v>550666647000</v>
+        <v>469</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
       </c>
       <c r="L4" t="n">
-        <v>6.98</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>6775</v>
+        <v>6800</v>
       </c>
       <c r="G5" t="n">
-        <v>6750</v>
+        <v>6800</v>
       </c>
       <c r="H5" t="n">
-        <v>6750</v>
+        <v>6700</v>
       </c>
       <c r="I5" t="n">
-        <v>6775</v>
+        <v>6780</v>
       </c>
       <c r="J5" t="n">
-        <v>587</v>
-      </c>
-      <c r="K5" t="n">
-        <v>372967815000</v>
+        <v>1342</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
       </c>
       <c r="L5" t="n">
-        <v>4.73</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -877,54 +985,54 @@
         <v>18</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
         <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>353</v>
-      </c>
-      <c r="K6" t="n">
-        <v>325513920996</v>
+        <v>21960</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
       </c>
       <c r="L6" t="n">
-        <v>4.13</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>8700</v>
+        <v>5790</v>
       </c>
       <c r="G7" t="n">
-        <v>8800</v>
+        <v>5790</v>
       </c>
       <c r="H7" t="n">
-        <v>8650</v>
+        <v>5600</v>
       </c>
       <c r="I7" t="n">
-        <v>8800</v>
+        <v>5780</v>
       </c>
       <c r="J7" t="n">
-        <v>77</v>
-      </c>
-      <c r="K7" t="n">
-        <v>281600000000</v>
+        <v>446</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
       </c>
       <c r="L7" t="n">
         <v>3.57</v>
@@ -932,75 +1040,75 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>5700</v>
+        <v>8665</v>
       </c>
       <c r="G8" t="n">
-        <v>5750</v>
+        <v>8750</v>
       </c>
       <c r="H8" t="n">
-        <v>5600</v>
+        <v>8665</v>
       </c>
       <c r="I8" t="n">
-        <v>5600</v>
+        <v>8700</v>
       </c>
       <c r="J8" t="n">
-        <v>3099</v>
-      </c>
-      <c r="K8" t="n">
-        <v>280000000000</v>
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
       </c>
       <c r="L8" t="n">
-        <v>3.55</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>2295</v>
+        <v>7295</v>
       </c>
       <c r="G9" t="n">
-        <v>2150</v>
+        <v>7300</v>
       </c>
       <c r="H9" t="n">
-        <v>2150</v>
+        <v>7200</v>
       </c>
       <c r="I9" t="n">
-        <v>2295</v>
+        <v>7295</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="n">
-        <v>159307496145</v>
+        <v>678</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
       </c>
       <c r="L9" t="n">
         <v>2.02</v>
@@ -1008,75 +1116,75 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="n">
-        <v>7200</v>
+        <v>2200</v>
       </c>
       <c r="G10" t="n">
-        <v>7300</v>
+        <v>2295</v>
       </c>
       <c r="H10" t="n">
-        <v>7300</v>
+        <v>2200</v>
       </c>
       <c r="I10" t="n">
-        <v>7200</v>
+        <v>2200</v>
       </c>
       <c r="J10" t="n">
-        <v>767</v>
-      </c>
-      <c r="K10" t="n">
-        <v>158400000000</v>
+        <v>252</v>
+      </c>
+      <c r="K10" t="s">
+        <v>45</v>
       </c>
       <c r="L10" t="n">
-        <v>2.01</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" t="s">
         <v>16</v>
       </c>
       <c r="F11" t="n">
-        <v>6770</v>
+        <v>2115</v>
       </c>
       <c r="G11" t="n">
-        <v>6770</v>
+        <v>2220</v>
       </c>
       <c r="H11" t="n">
-        <v>6770</v>
+        <v>2100</v>
       </c>
       <c r="I11" t="n">
-        <v>6770</v>
+        <v>2210</v>
       </c>
       <c r="J11" t="n">
-        <v>47</v>
-      </c>
-      <c r="K11" t="n">
-        <v>149416608000</v>
+        <v>17611</v>
+      </c>
+      <c r="K11" t="s">
+        <v>48</v>
       </c>
       <c r="L11" t="n">
         <v>1.9</v>
@@ -1084,1142 +1192,1104 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="n">
-        <v>7280</v>
+        <v>6770</v>
       </c>
       <c r="G12" t="n">
-        <v>7280</v>
+        <v>6770</v>
       </c>
       <c r="H12" t="n">
-        <v>7230</v>
+        <v>6560</v>
       </c>
       <c r="I12" t="n">
-        <v>7250</v>
+        <v>6770</v>
       </c>
       <c r="J12" t="n">
-        <v>970</v>
-      </c>
-      <c r="K12" t="n">
-        <v>145000000000</v>
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>52</v>
       </c>
       <c r="L12" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="n">
-        <v>87000</v>
+        <v>790</v>
       </c>
       <c r="G13" t="n">
-        <v>87000</v>
+        <v>800</v>
       </c>
       <c r="H13" t="n">
-        <v>87000</v>
+        <v>790</v>
       </c>
       <c r="I13" t="n">
-        <v>87000</v>
+        <v>800</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
-      </c>
-      <c r="K13" t="n">
-        <v>143209308000</v>
+        <v>618</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
       </c>
       <c r="L13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="n">
-        <v>2275</v>
+        <v>7290</v>
       </c>
       <c r="G14" t="n">
-        <v>2275</v>
+        <v>7300</v>
       </c>
       <c r="H14" t="n">
-        <v>2105</v>
+        <v>7200</v>
       </c>
       <c r="I14" t="n">
-        <v>2105</v>
+        <v>7300</v>
       </c>
       <c r="J14" t="n">
-        <v>42485</v>
-      </c>
-      <c r="K14" t="n">
-        <v>143140000000</v>
+        <v>1501</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
       </c>
       <c r="L14" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="n">
-        <v>775</v>
+        <v>5370</v>
       </c>
       <c r="G15" t="n">
-        <v>775</v>
+        <v>5600</v>
       </c>
       <c r="H15" t="n">
-        <v>735</v>
+        <v>5345</v>
       </c>
       <c r="I15" t="n">
-        <v>735</v>
+        <v>5600</v>
       </c>
       <c r="J15" t="n">
-        <v>2005</v>
-      </c>
-      <c r="K15" t="n">
-        <v>133308346500</v>
+        <v>622</v>
+      </c>
+      <c r="K15" t="s">
+        <v>62</v>
       </c>
       <c r="L15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" t="n">
-        <v>6500</v>
+        <v>6450</v>
       </c>
       <c r="G16" t="n">
         <v>6455</v>
       </c>
       <c r="H16" t="n">
+        <v>6310</v>
+      </c>
+      <c r="I16" t="n">
         <v>6455</v>
       </c>
-      <c r="I16" t="n">
-        <v>6495</v>
-      </c>
       <c r="J16" t="n">
-        <v>596</v>
-      </c>
-      <c r="K16" t="n">
-        <v>131722003380</v>
+        <v>4369</v>
+      </c>
+      <c r="K16" t="s">
+        <v>66</v>
       </c>
       <c r="L16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>5325</v>
+        <v>6980</v>
       </c>
       <c r="G17" t="n">
-        <v>5400</v>
+        <v>6980</v>
       </c>
       <c r="H17" t="n">
-        <v>5400</v>
+        <v>6980</v>
       </c>
       <c r="I17" t="n">
-        <v>5325</v>
+        <v>6980</v>
       </c>
       <c r="J17" t="n">
-        <v>127</v>
-      </c>
-      <c r="K17" t="n">
-        <v>131711595900</v>
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>69</v>
       </c>
       <c r="L17" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>6850</v>
+        <v>7295</v>
       </c>
       <c r="G18" t="n">
         <v>7350</v>
       </c>
       <c r="H18" t="n">
-        <v>6845</v>
+        <v>7300</v>
       </c>
       <c r="I18" t="n">
-        <v>7350</v>
+        <v>7300</v>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
-      </c>
-      <c r="K18" t="n">
-        <v>122500024500</v>
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>72</v>
       </c>
       <c r="L18" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>6200</v>
+        <v>6985</v>
       </c>
       <c r="G19" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="H19" t="n">
-        <v>6200</v>
+        <v>6900</v>
       </c>
       <c r="I19" t="n">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="J19" t="n">
-        <v>10190</v>
-      </c>
-      <c r="K19" t="n">
-        <v>113116500000</v>
+        <v>1344</v>
+      </c>
+      <c r="K19" t="s">
+        <v>76</v>
       </c>
       <c r="L19" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="n">
-        <v>6745</v>
+        <v>1705</v>
       </c>
       <c r="G20" t="n">
-        <v>6770</v>
+        <v>1705</v>
       </c>
       <c r="H20" t="n">
-        <v>6700</v>
+        <v>1655</v>
       </c>
       <c r="I20" t="n">
-        <v>6770</v>
+        <v>1705</v>
       </c>
       <c r="J20" t="n">
-        <v>4587</v>
-      </c>
-      <c r="K20" t="n">
-        <v>104659569320</v>
+        <v>391</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>1645</v>
+        <v>1650</v>
       </c>
       <c r="G21" t="n">
-        <v>1645</v>
+        <v>1695</v>
       </c>
       <c r="H21" t="n">
-        <v>1645</v>
+        <v>1600</v>
       </c>
       <c r="I21" t="n">
-        <v>1645</v>
+        <v>1600</v>
       </c>
       <c r="J21" t="n">
-        <v>687</v>
-      </c>
-      <c r="K21" t="n">
-        <v>103571832000</v>
+        <v>42010</v>
+      </c>
+      <c r="K21" t="s">
+        <v>82</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="n">
-        <v>1695</v>
+        <v>1525</v>
       </c>
       <c r="G22" t="n">
-        <v>1695</v>
+        <v>1530</v>
       </c>
       <c r="H22" t="n">
-        <v>1640</v>
+        <v>1500</v>
       </c>
       <c r="I22" t="n">
-        <v>1650</v>
+        <v>1530</v>
       </c>
       <c r="J22" t="n">
-        <v>3749</v>
-      </c>
-      <c r="K22" t="n">
-        <v>92400000000</v>
+        <v>20960</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
         <v>16</v>
       </c>
       <c r="F23" t="n">
-        <v>1525</v>
+        <v>3890</v>
       </c>
       <c r="G23" t="n">
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="H23" t="n">
-        <v>1500</v>
+        <v>3740</v>
       </c>
       <c r="I23" t="n">
-        <v>1525</v>
+        <v>3890</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
-      </c>
-      <c r="K23" t="n">
-        <v>83013832500</v>
+        <v>1032</v>
+      </c>
+      <c r="K23" t="s">
+        <v>89</v>
       </c>
       <c r="L23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E24" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>10290</v>
+        <v>10295</v>
       </c>
       <c r="G24" t="n">
-        <v>10290</v>
+        <v>10295</v>
       </c>
       <c r="H24" t="n">
-        <v>10290</v>
+        <v>10260</v>
       </c>
       <c r="I24" t="n">
-        <v>10290</v>
+        <v>10270</v>
       </c>
       <c r="J24" t="n">
-        <v>168</v>
-      </c>
-      <c r="K24" t="n">
-        <v>80212608000</v>
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
+        <v>92</v>
       </c>
       <c r="L24" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E25" t="s">
         <v>16</v>
       </c>
       <c r="F25" t="n">
-        <v>3200</v>
+        <v>5775</v>
       </c>
       <c r="G25" t="n">
-        <v>3200</v>
+        <v>5790</v>
       </c>
       <c r="H25" t="n">
-        <v>3155</v>
+        <v>5600</v>
       </c>
       <c r="I25" t="n">
-        <v>3195</v>
+        <v>5790</v>
       </c>
       <c r="J25" t="n">
-        <v>2108</v>
-      </c>
-      <c r="K25" t="n">
-        <v>76680000000</v>
+        <v>8578</v>
+      </c>
+      <c r="K25" t="s">
+        <v>96</v>
       </c>
       <c r="L25" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="n">
-        <v>3380</v>
+        <v>3200</v>
       </c>
       <c r="G26" t="n">
-        <v>3500</v>
+        <v>3295</v>
       </c>
       <c r="H26" t="n">
-        <v>3370</v>
+        <v>3200</v>
       </c>
       <c r="I26" t="n">
-        <v>3500</v>
+        <v>3295</v>
       </c>
       <c r="J26" t="n">
-        <v>71</v>
-      </c>
-      <c r="K26" t="n">
-        <v>75606440000</v>
+        <v>1600</v>
+      </c>
+      <c r="K26" t="s">
+        <v>99</v>
       </c>
       <c r="L26" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
       </c>
       <c r="F27" t="n">
-        <v>5745</v>
+        <v>2280</v>
       </c>
       <c r="G27" t="n">
-        <v>5775</v>
+        <v>2300</v>
       </c>
       <c r="H27" t="n">
-        <v>5700</v>
+        <v>2280</v>
       </c>
       <c r="I27" t="n">
-        <v>5775</v>
+        <v>2280</v>
       </c>
       <c r="J27" t="n">
-        <v>5616</v>
-      </c>
-      <c r="K27" t="n">
-        <v>75075000000</v>
+        <v>279</v>
+      </c>
+      <c r="K27" t="s">
+        <v>102</v>
       </c>
       <c r="L27" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E28" t="s">
         <v>16</v>
       </c>
       <c r="F28" t="n">
-        <v>2295</v>
+        <v>2400</v>
       </c>
       <c r="G28" t="n">
-        <v>2295</v>
+        <v>2450</v>
       </c>
       <c r="H28" t="n">
-        <v>2280</v>
+        <v>2400</v>
       </c>
       <c r="I28" t="n">
-        <v>2280</v>
+        <v>2445</v>
       </c>
       <c r="J28" t="n">
-        <v>77</v>
-      </c>
-      <c r="K28" t="n">
-        <v>74277156000</v>
+        <v>171</v>
+      </c>
+      <c r="K28" t="s">
+        <v>105</v>
       </c>
       <c r="L28" t="n">
-        <v>0.94</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>16</v>
       </c>
       <c r="F29" t="n">
-        <v>2260</v>
+        <v>765</v>
       </c>
       <c r="G29" t="n">
-        <v>2350</v>
+        <v>770</v>
       </c>
       <c r="H29" t="n">
-        <v>2260</v>
+        <v>765</v>
       </c>
       <c r="I29" t="n">
-        <v>2260</v>
+        <v>770</v>
       </c>
       <c r="J29" t="n">
-        <v>1010</v>
-      </c>
-      <c r="K29" t="n">
-        <v>57761091300</v>
+        <v>514</v>
+      </c>
+      <c r="K29" t="s">
+        <v>108</v>
       </c>
       <c r="L29" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="n">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="G30" t="n">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="H30" t="n">
-        <v>6000</v>
+        <v>4390</v>
       </c>
       <c r="I30" t="n">
-        <v>6000</v>
+        <v>4395</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>55100400000</v>
+        <v>342</v>
+      </c>
+      <c r="K30" t="s">
+        <v>111</v>
       </c>
       <c r="L30" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="n">
-        <v>725</v>
+        <v>1460</v>
       </c>
       <c r="G31" t="n">
-        <v>715</v>
+        <v>1465</v>
       </c>
       <c r="H31" t="n">
-        <v>715</v>
+        <v>1460</v>
       </c>
       <c r="I31" t="n">
-        <v>765</v>
+        <v>1465</v>
       </c>
       <c r="J31" t="n">
-        <v>130</v>
-      </c>
-      <c r="K31" t="n">
-        <v>48195000000</v>
+        <v>504</v>
+      </c>
+      <c r="K31" t="s">
+        <v>115</v>
       </c>
       <c r="L31" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
         <v>16</v>
       </c>
       <c r="F32" t="n">
-        <v>4395</v>
+        <v>1940</v>
       </c>
       <c r="G32" t="n">
-        <v>4395</v>
+        <v>1940</v>
       </c>
       <c r="H32" t="n">
-        <v>4390</v>
+        <v>1850</v>
       </c>
       <c r="I32" t="n">
-        <v>4390</v>
+        <v>1900</v>
       </c>
       <c r="J32" t="n">
-        <v>49</v>
-      </c>
-      <c r="K32" t="n">
-        <v>39510000000</v>
+        <v>289</v>
+      </c>
+      <c r="K32" t="s">
+        <v>118</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>16</v>
       </c>
       <c r="F33" t="n">
-        <v>1450</v>
+        <v>1905</v>
       </c>
       <c r="G33" t="n">
-        <v>1475</v>
+        <v>1945</v>
       </c>
       <c r="H33" t="n">
-        <v>1450</v>
+        <v>1810</v>
       </c>
       <c r="I33" t="n">
-        <v>1475</v>
+        <v>1945</v>
       </c>
       <c r="J33" t="n">
-        <v>947</v>
-      </c>
-      <c r="K33" t="n">
-        <v>26992500000</v>
+        <v>12</v>
+      </c>
+      <c r="K33" t="s">
+        <v>121</v>
       </c>
       <c r="L33" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>1935</v>
+        <v>1285</v>
       </c>
       <c r="G34" t="n">
-        <v>1940</v>
+        <v>1285</v>
       </c>
       <c r="H34" t="n">
-        <v>1870</v>
+        <v>1285</v>
       </c>
       <c r="I34" t="n">
-        <v>1900</v>
+        <v>1285</v>
       </c>
       <c r="J34" t="n">
-        <v>4041</v>
-      </c>
-      <c r="K34" t="n">
-        <v>26797106000</v>
+        <v>258</v>
+      </c>
+      <c r="K34" t="s">
+        <v>124</v>
       </c>
       <c r="L34" t="n">
-        <v>0.34</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>1800</v>
+        <v>535</v>
       </c>
       <c r="G35" t="n">
-        <v>1800</v>
+        <v>535</v>
       </c>
       <c r="H35" t="n">
-        <v>1800</v>
+        <v>530</v>
       </c>
       <c r="I35" t="n">
-        <v>1685</v>
+        <v>535</v>
       </c>
       <c r="J35" t="n">
-        <v>11</v>
-      </c>
-      <c r="K35" t="n">
-        <v>17254400000</v>
+        <v>389</v>
+      </c>
+      <c r="K35" t="s">
+        <v>127</v>
       </c>
       <c r="L35" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="n">
+        <v>445</v>
+      </c>
+      <c r="G36" t="n">
+        <v>445</v>
+      </c>
+      <c r="H36" t="n">
+        <v>440</v>
+      </c>
+      <c r="I36" t="n">
+        <v>440</v>
+      </c>
+      <c r="J36" t="n">
         <v>94</v>
       </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1285</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1285</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1250</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1285</v>
-      </c>
-      <c r="J36" t="n">
-        <v>280</v>
-      </c>
-      <c r="K36" t="n">
-        <v>14021920000</v>
+      <c r="K36" t="s">
+        <v>130</v>
       </c>
       <c r="L36" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="n">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="G37" t="n">
-        <v>575</v>
+        <v>670</v>
       </c>
       <c r="H37" t="n">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="I37" t="n">
-        <v>535</v>
+        <v>670</v>
       </c>
       <c r="J37" t="n">
-        <v>181</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11101250000</v>
+        <v>2938</v>
+      </c>
+      <c r="K37" t="s">
+        <v>133</v>
       </c>
       <c r="L37" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
         <v>16</v>
       </c>
       <c r="F38" t="n">
-        <v>805</v>
+        <v>1225</v>
       </c>
       <c r="G38" t="n">
-        <v>805</v>
+        <v>1225</v>
       </c>
       <c r="H38" t="n">
-        <v>755</v>
+        <v>1225</v>
       </c>
       <c r="I38" t="n">
-        <v>805</v>
+        <v>1225</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
-      </c>
-      <c r="K38" t="n">
-        <v>10819200000</v>
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>136</v>
       </c>
       <c r="L38" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
         <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>450</v>
+        <v>1025</v>
       </c>
       <c r="G39" t="n">
-        <v>450</v>
+        <v>1025</v>
       </c>
       <c r="H39" t="n">
-        <v>450</v>
+        <v>1015</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>1025</v>
       </c>
       <c r="J39" t="n">
-        <v>5617</v>
-      </c>
-      <c r="K39" t="n">
-        <v>8820000000</v>
+        <v>420</v>
+      </c>
+      <c r="K39" t="s">
+        <v>139</v>
       </c>
       <c r="L39" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>1140</v>
+        <v>3650</v>
       </c>
       <c r="G40" t="n">
-        <v>1140</v>
+        <v>3650</v>
       </c>
       <c r="H40" t="n">
-        <v>1140</v>
+        <v>3650</v>
       </c>
       <c r="I40" t="n">
-        <v>1140</v>
+        <v>3650</v>
       </c>
       <c r="J40" t="n">
-        <v>15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7551360000</v>
+        <v>55</v>
+      </c>
+      <c r="K40" t="s">
+        <v>142</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1015</v>
-      </c>
-      <c r="G41" t="n">
-        <v>1015</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1015</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1015</v>
-      </c>
-      <c r="J41" t="n">
-        <v>400</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6008800000</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/BRVM Excel R files/Realtime_BRVM.xlsx
+++ b/BRVM Excel R files/Realtime_BRVM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -41,6 +41,9 @@
     <t xml:space="preserve">Close</t>
   </si>
   <si>
+    <t xml:space="preserve">Difference</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volume</t>
   </si>
   <si>
@@ -62,10 +65,10 @@
     <t xml:space="preserve">SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-03-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,789,500,000,000</t>
+    <t xml:space="preserve">2024-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,900,000,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORAC</t>
@@ -77,7 +80,7 @@
     <t xml:space="preserve">IVORY COAST</t>
   </si>
   <si>
-    <t xml:space="preserve">1,625,571,226,500</t>
+    <t xml:space="preserve">1,633,857,270,750</t>
   </si>
   <si>
     <t xml:space="preserve">SGBC</t>
@@ -89,7 +92,7 @@
     <t xml:space="preserve">SOCIETE GENERALE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">549,422,202,600</t>
+    <t xml:space="preserve">544,444,425,000</t>
   </si>
   <si>
     <t xml:space="preserve">ECOC</t>
@@ -98,7 +101,7 @@
     <t xml:space="preserve">ECOBANK COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">373,793,574,000</t>
+    <t xml:space="preserve">379,849,140,000</t>
   </si>
   <si>
     <t xml:space="preserve">ETIT</t>
@@ -113,25 +116,34 @@
     <t xml:space="preserve">325,513,920,996</t>
   </si>
   <si>
+    <t xml:space="preserve">CBIBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORIS BANK INTERNATIONAL BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">291,200,000,000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SIBC</t>
   </si>
   <si>
     <t xml:space="preserve">SOCIETE IVOIRIENNE DE BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">283,250,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBIBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORIS BANK INTERNATIONAL BURKINA FASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURKINA FASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">280,000,000,000</t>
+    <t xml:space="preserve">289,000,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONTBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONATEL BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">163,200,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOABF</t>
@@ -140,7 +152,7 @@
     <t xml:space="preserve">BANK OF AFRICA BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">160,380,000,000</t>
+    <t xml:space="preserve">156,090,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORGT</t>
@@ -149,16 +161,7 @@
     <t xml:space="preserve">ORAGROUP TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">152,713,068,200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONTBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ONATEL BURKINA FASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150,960,000,000</t>
+    <t xml:space="preserve">152,018,917,890</t>
   </si>
   <si>
     <t xml:space="preserve">NTLC</t>
@@ -170,7 +173,28 @@
     <t xml:space="preserve">NESTLE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">149,195,904,000</t>
+    <t xml:space="preserve">151,182,240,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">144,000,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA BENIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141,558,057,520</t>
   </si>
   <si>
     <t xml:space="preserve">CFAC</t>
@@ -182,16 +206,7 @@
     <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">145,097,520,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">143,600,000,000</t>
+    <t xml:space="preserve">141,470,082,000</t>
   </si>
   <si>
     <t xml:space="preserve">NSBC</t>
@@ -200,19 +215,16 @@
     <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">133,566,688,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA BENIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">131,722,003,380</t>
+    <t xml:space="preserve">138,389,930,340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICI COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123,333,358,000</t>
   </si>
   <si>
     <t xml:space="preserve">STBC</t>
@@ -221,16 +233,7 @@
     <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">125,236,125,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICI COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122,500,024,500</t>
+    <t xml:space="preserve">122,363,325,000</t>
   </si>
   <si>
     <t xml:space="preserve">PALC</t>
@@ -242,7 +245,7 @@
     <t xml:space="preserve">PALM COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">108,215,212,000</t>
+    <t xml:space="preserve">114,398,938,400</t>
   </si>
   <si>
     <t xml:space="preserve">TTLC</t>
@@ -251,7 +254,28 @@
     <t xml:space="preserve">TOTAL COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">107,034,720,000</t>
+    <t xml:space="preserve">109,553,184,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMB COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87,968,832,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOLLORE TRANSPORT &amp; LOGISTICS COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87,096,480,000</t>
   </si>
   <si>
     <t xml:space="preserve">CIEC</t>
@@ -260,19 +284,16 @@
     <t xml:space="preserve">CIE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">89,600,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSPORT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOLLORE TRANSPORT &amp; LOGISTICS COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84,102,538,500</t>
+    <t xml:space="preserve">87,080,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL SENEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83,073,135,000</t>
   </si>
   <si>
     <t xml:space="preserve">SOGC</t>
@@ -281,16 +302,16 @@
     <t xml:space="preserve">SOGB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">83,923,148,400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMB COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,095,680,000</t>
+    <t xml:space="preserve">81,438,936,800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80,400,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAN</t>
@@ -302,25 +323,7 @@
     <t xml:space="preserve">NIGER</t>
   </si>
   <si>
-    <t xml:space="preserve">75,335,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74,040,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTLS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL SENEGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73,299,825,000</t>
+    <t xml:space="preserve">78,910,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SPHC</t>
@@ -329,7 +332,7 @@
     <t xml:space="preserve">SAPH COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">61,339,212,000</t>
+    <t xml:space="preserve">65,045,122,725</t>
   </si>
   <si>
     <t xml:space="preserve">SHEC</t>
@@ -338,7 +341,7 @@
     <t xml:space="preserve">VIVO ENERGY COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">50,400,000,000</t>
+    <t xml:space="preserve">49,140,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SDCC</t>
@@ -347,7 +350,7 @@
     <t xml:space="preserve">SODE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">39,555,000,000</t>
+    <t xml:space="preserve">40,320,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAM</t>
@@ -359,7 +362,7 @@
     <t xml:space="preserve">MALI</t>
   </si>
   <si>
-    <t xml:space="preserve">27,358,500,000</t>
+    <t xml:space="preserve">29,463,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">FTSC</t>
@@ -368,7 +371,7 @@
     <t xml:space="preserve">FILTISAC COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">26,797,106,000</t>
+    <t xml:space="preserve">27,149,699,500</t>
   </si>
   <si>
     <t xml:space="preserve">PRSC</t>
@@ -377,7 +380,7 @@
     <t xml:space="preserve">TRACTAFRIC MOTORS COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">20,480,000,000</t>
+    <t xml:space="preserve">23,040,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ABJC</t>
@@ -386,7 +389,7 @@
     <t xml:space="preserve">SERVAIR ABIDJAN  COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">13,967,360,000</t>
+    <t xml:space="preserve">13,694,560,000</t>
   </si>
   <si>
     <t xml:space="preserve">UNXC</t>
@@ -395,7 +398,16 @@
     <t xml:space="preserve">UNIWAX COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">11,101,250,000</t>
+    <t xml:space="preserve">10,997,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAFCA COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,987,292,500</t>
   </si>
   <si>
     <t xml:space="preserve">SCRC</t>
@@ -404,7 +416,7 @@
     <t xml:space="preserve">SUCRIVOIRE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">8,820,000,000</t>
+    <t xml:space="preserve">9,114,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">NEIC</t>
@@ -413,7 +425,7 @@
     <t xml:space="preserve">NEI-CEDA COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">8,553,102,750</t>
+    <t xml:space="preserve">8,489,273,625</t>
   </si>
   <si>
     <t xml:space="preserve">BNBC</t>
@@ -422,7 +434,16 @@
     <t xml:space="preserve">BERNABE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">8,147,520,000</t>
+    <t xml:space="preserve">8,114,400,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIR LIQUIDE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,987,200,000</t>
   </si>
   <si>
     <t xml:space="preserve">CABC</t>
@@ -431,16 +452,7 @@
     <t xml:space="preserve">SICABLE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">6,393,600,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SICC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SICOR COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,190,000,000</t>
+    <t xml:space="preserve">6,512,000,000</t>
   </si>
 </sst>
 </file>
@@ -809,174 +821,189 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>17850</v>
+        <v>19000</v>
       </c>
       <c r="G2" t="n">
-        <v>17885</v>
+        <v>19000</v>
       </c>
       <c r="H2" t="n">
-        <v>17860</v>
+        <v>18800</v>
       </c>
       <c r="I2" t="n">
-        <v>17885</v>
+        <v>19000</v>
       </c>
       <c r="J2" t="n">
-        <v>1834</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="n">
-        <v>22.54</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2661</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>23.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
         <v>10800</v>
       </c>
       <c r="G3" t="n">
+        <v>10900</v>
+      </c>
+      <c r="H3" t="n">
         <v>10800</v>
       </c>
-      <c r="H3" t="n">
-        <v>10750</v>
-      </c>
       <c r="I3" t="n">
-        <v>10750</v>
+        <v>10845</v>
       </c>
       <c r="J3" t="n">
-        <v>1563</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="n">
-        <v>20.47</v>
+        <v>0.42</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6936</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="n">
+        <v>20.07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>17650</v>
+        <v>18000</v>
       </c>
       <c r="G4" t="n">
-        <v>17750</v>
+        <v>18050</v>
       </c>
       <c r="H4" t="n">
-        <v>17650</v>
+        <v>17500</v>
       </c>
       <c r="I4" t="n">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="J4" t="n">
-        <v>469</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.92</v>
+        <v>-2.78</v>
+      </c>
+      <c r="K4" t="n">
+        <v>362</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6.69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G5" t="n">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="H5" t="n">
         <v>6700</v>
       </c>
       <c r="I5" t="n">
-        <v>6780</v>
+        <v>6900</v>
       </c>
       <c r="J5" t="n">
-        <v>1342</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4.71</v>
+        <v>2.99</v>
+      </c>
+      <c r="K5" t="n">
+        <v>9327</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>18</v>
@@ -991,279 +1018,303 @@
         <v>18</v>
       </c>
       <c r="J6" t="n">
-        <v>21960</v>
-      </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.1</v>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12230</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>5790</v>
+        <v>9100</v>
       </c>
       <c r="G7" t="n">
-        <v>5790</v>
+        <v>9100</v>
       </c>
       <c r="H7" t="n">
-        <v>5600</v>
+        <v>9100</v>
       </c>
       <c r="I7" t="n">
-        <v>5780</v>
+        <v>9100</v>
       </c>
       <c r="J7" t="n">
-        <v>446</v>
-      </c>
-      <c r="K7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.57</v>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>8665</v>
+        <v>5800</v>
       </c>
       <c r="G8" t="n">
-        <v>8750</v>
+        <v>5840</v>
       </c>
       <c r="H8" t="n">
-        <v>8665</v>
+        <v>5780</v>
       </c>
       <c r="I8" t="n">
-        <v>8700</v>
+        <v>5780</v>
       </c>
       <c r="J8" t="n">
-        <v>62</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.53</v>
+        <v>-0.34</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1192</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>7295</v>
+        <v>2305</v>
       </c>
       <c r="G9" t="n">
-        <v>7300</v>
+        <v>2400</v>
       </c>
       <c r="H9" t="n">
-        <v>7200</v>
+        <v>2300</v>
       </c>
       <c r="I9" t="n">
-        <v>7295</v>
+        <v>2400</v>
       </c>
       <c r="J9" t="n">
-        <v>678</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.02</v>
+        <v>4.12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6173</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>2200</v>
+        <v>7045</v>
       </c>
       <c r="G10" t="n">
-        <v>2295</v>
+        <v>7095</v>
       </c>
       <c r="H10" t="n">
-        <v>2200</v>
+        <v>7045</v>
       </c>
       <c r="I10" t="n">
-        <v>2200</v>
+        <v>7095</v>
       </c>
       <c r="J10" t="n">
-        <v>252</v>
-      </c>
-      <c r="K10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L10" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K10" t="n">
+        <v>710</v>
+      </c>
+      <c r="L10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>2115</v>
+        <v>2120</v>
       </c>
       <c r="G11" t="n">
-        <v>2220</v>
+        <v>2190</v>
       </c>
       <c r="H11" t="n">
         <v>2100</v>
       </c>
       <c r="I11" t="n">
-        <v>2210</v>
+        <v>2190</v>
       </c>
       <c r="J11" t="n">
-        <v>17611</v>
-      </c>
-      <c r="K11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>580</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>6770</v>
+        <v>6510</v>
       </c>
       <c r="G12" t="n">
-        <v>6770</v>
+        <v>6850</v>
       </c>
       <c r="H12" t="n">
-        <v>6560</v>
+        <v>6800</v>
       </c>
       <c r="I12" t="n">
-        <v>6770</v>
+        <v>6850</v>
       </c>
       <c r="J12" t="n">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.88</v>
+        <v>5.22</v>
+      </c>
+      <c r="K12" t="n">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>790</v>
+        <v>7245</v>
       </c>
       <c r="G13" t="n">
-        <v>800</v>
+        <v>7245</v>
       </c>
       <c r="H13" t="n">
-        <v>790</v>
+        <v>7200</v>
       </c>
       <c r="I13" t="n">
-        <v>800</v>
+        <v>7200</v>
       </c>
       <c r="J13" t="n">
-        <v>618</v>
-      </c>
-      <c r="K13" t="s">
+        <v>-0.62</v>
+      </c>
+      <c r="K13" t="n">
+        <v>17118</v>
+      </c>
+      <c r="L13" t="s">
         <v>56</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.83</v>
+      <c r="M13" t="n">
+        <v>1.77</v>
       </c>
     </row>
     <row r="14">
@@ -1271,455 +1322,491 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>7290</v>
+        <v>6985</v>
       </c>
       <c r="G14" t="n">
-        <v>7300</v>
+        <v>6985</v>
       </c>
       <c r="H14" t="n">
-        <v>7200</v>
+        <v>6980</v>
       </c>
       <c r="I14" t="n">
-        <v>7300</v>
+        <v>6980</v>
       </c>
       <c r="J14" t="n">
-        <v>1501</v>
-      </c>
-      <c r="K14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.81</v>
+        <v>-0.07</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2819</v>
+      </c>
+      <c r="L14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>5370</v>
+        <v>780</v>
       </c>
       <c r="G15" t="n">
-        <v>5600</v>
+        <v>780</v>
       </c>
       <c r="H15" t="n">
-        <v>5345</v>
+        <v>765</v>
       </c>
       <c r="I15" t="n">
-        <v>5600</v>
+        <v>780</v>
       </c>
       <c r="J15" t="n">
-        <v>622</v>
-      </c>
-      <c r="K15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.68</v>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>601</v>
+      </c>
+      <c r="L15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>6450</v>
+        <v>5550</v>
       </c>
       <c r="G16" t="n">
-        <v>6455</v>
+        <v>5595</v>
       </c>
       <c r="H16" t="n">
-        <v>6310</v>
+        <v>5550</v>
       </c>
       <c r="I16" t="n">
-        <v>6455</v>
+        <v>5595</v>
       </c>
       <c r="J16" t="n">
-        <v>4369</v>
-      </c>
-      <c r="K16" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.66</v>
+        <v>0.81</v>
+      </c>
+      <c r="K16" t="n">
+        <v>46</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>6980</v>
+        <v>6875</v>
       </c>
       <c r="G17" t="n">
-        <v>6980</v>
+        <v>7400</v>
       </c>
       <c r="H17" t="n">
-        <v>6980</v>
+        <v>6875</v>
       </c>
       <c r="I17" t="n">
-        <v>6980</v>
+        <v>7400</v>
       </c>
       <c r="J17" t="n">
-        <v>8</v>
-      </c>
-      <c r="K17" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.58</v>
+        <v>7.64</v>
+      </c>
+      <c r="K17" t="n">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>70</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>7295</v>
+        <v>6815</v>
       </c>
       <c r="G18" t="n">
-        <v>7350</v>
+        <v>6815</v>
       </c>
       <c r="H18" t="n">
-        <v>7300</v>
+        <v>6815</v>
       </c>
       <c r="I18" t="n">
-        <v>7300</v>
+        <v>6815</v>
       </c>
       <c r="J18" t="n">
-        <v>133</v>
-      </c>
-      <c r="K18" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.54</v>
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>130</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>6985</v>
+        <v>7400</v>
       </c>
       <c r="G19" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="H19" t="n">
-        <v>6900</v>
+        <v>7395</v>
       </c>
       <c r="I19" t="n">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="J19" t="n">
-        <v>1344</v>
-      </c>
-      <c r="K19" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.36</v>
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>1705</v>
+        <v>1750</v>
       </c>
       <c r="G20" t="n">
-        <v>1705</v>
+        <v>1750</v>
       </c>
       <c r="H20" t="n">
-        <v>1655</v>
+        <v>1730</v>
       </c>
       <c r="I20" t="n">
-        <v>1705</v>
+        <v>1740</v>
       </c>
       <c r="J20" t="n">
-        <v>391</v>
-      </c>
-      <c r="K20" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="K20" t="n">
+        <v>825</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>1650</v>
+        <v>11000</v>
       </c>
       <c r="G21" t="n">
-        <v>1695</v>
+        <v>11295</v>
       </c>
       <c r="H21" t="n">
-        <v>1600</v>
+        <v>11000</v>
       </c>
       <c r="I21" t="n">
-        <v>1600</v>
+        <v>11285</v>
       </c>
       <c r="J21" t="n">
-        <v>42010</v>
-      </c>
-      <c r="K21" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.13</v>
+        <v>2.59</v>
+      </c>
+      <c r="K21" t="n">
+        <v>350</v>
+      </c>
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>1525</v>
+        <v>1600</v>
       </c>
       <c r="G22" t="n">
-        <v>1530</v>
+        <v>1600</v>
       </c>
       <c r="H22" t="n">
-        <v>1500</v>
+        <v>1595</v>
       </c>
       <c r="I22" t="n">
-        <v>1530</v>
+        <v>1600</v>
       </c>
       <c r="J22" t="n">
-        <v>20960</v>
-      </c>
-      <c r="K22" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.06</v>
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1208</v>
+      </c>
+      <c r="L22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>3890</v>
+        <v>1555</v>
       </c>
       <c r="G23" t="n">
-        <v>4000</v>
+        <v>1560</v>
       </c>
       <c r="H23" t="n">
-        <v>3740</v>
+        <v>1550</v>
       </c>
       <c r="I23" t="n">
-        <v>3890</v>
+        <v>1555</v>
       </c>
       <c r="J23" t="n">
-        <v>1032</v>
-      </c>
-      <c r="K23" t="s">
-        <v>89</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.06</v>
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>20926</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>10295</v>
+        <v>2450</v>
       </c>
       <c r="G24" t="n">
-        <v>10295</v>
+        <v>2550</v>
       </c>
       <c r="H24" t="n">
-        <v>10260</v>
+        <v>2450</v>
       </c>
       <c r="I24" t="n">
-        <v>10270</v>
+        <v>2550</v>
       </c>
       <c r="J24" t="n">
-        <v>55</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
+        <v>4.08</v>
+      </c>
+      <c r="K24" t="n">
+        <v>198</v>
+      </c>
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>5775</v>
+        <v>3790</v>
       </c>
       <c r="G25" t="n">
-        <v>5790</v>
+        <v>3790</v>
       </c>
       <c r="H25" t="n">
-        <v>5600</v>
+        <v>3755</v>
       </c>
       <c r="I25" t="n">
-        <v>5790</v>
+        <v>3770</v>
       </c>
       <c r="J25" t="n">
-        <v>8578</v>
-      </c>
-      <c r="K25" t="s">
+        <v>-0.53</v>
+      </c>
+      <c r="K25" t="n">
+        <v>373</v>
+      </c>
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="L25" t="n">
-        <v>0.95</v>
+      <c r="M25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1727,37 +1814,40 @@
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>98</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>3200</v>
+        <v>3390</v>
       </c>
       <c r="G26" t="n">
-        <v>3295</v>
+        <v>3390</v>
       </c>
       <c r="H26" t="n">
-        <v>3200</v>
+        <v>3350</v>
       </c>
       <c r="I26" t="n">
-        <v>3295</v>
+        <v>3350</v>
       </c>
       <c r="J26" t="n">
-        <v>1600</v>
-      </c>
-      <c r="K26" t="s">
+        <v>-1.18</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1739</v>
+      </c>
+      <c r="L26" t="s">
         <v>99</v>
       </c>
-      <c r="L26" t="n">
-        <v>0.93</v>
+      <c r="M26" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="27">
@@ -1765,531 +1855,614 @@
         <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>2280</v>
+        <v>6070</v>
       </c>
       <c r="G27" t="n">
-        <v>2300</v>
+        <v>6070</v>
       </c>
       <c r="H27" t="n">
-        <v>2280</v>
+        <v>6000</v>
       </c>
       <c r="I27" t="n">
-        <v>2280</v>
+        <v>6070</v>
       </c>
       <c r="J27" t="n">
-        <v>279</v>
-      </c>
-      <c r="K27" t="s">
-        <v>102</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.92</v>
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1611</v>
+      </c>
+      <c r="L27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.97</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>2400</v>
+        <v>2550</v>
       </c>
       <c r="G28" t="n">
-        <v>2450</v>
+        <v>2550</v>
       </c>
       <c r="H28" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="I28" t="n">
-        <v>2445</v>
+        <v>2545</v>
       </c>
       <c r="J28" t="n">
-        <v>171</v>
-      </c>
-      <c r="K28" t="s">
-        <v>105</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.77</v>
+        <v>-0.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>551</v>
+      </c>
+      <c r="L28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="G29" t="n">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="H29" t="n">
         <v>765</v>
       </c>
       <c r="I29" t="n">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="J29" t="n">
-        <v>514</v>
-      </c>
-      <c r="K29" t="s">
-        <v>108</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.63</v>
+        <v>1.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2096</v>
+      </c>
+      <c r="L29" t="s">
+        <v>109</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>4400</v>
+        <v>4480</v>
       </c>
       <c r="G30" t="n">
-        <v>4400</v>
+        <v>4495</v>
       </c>
       <c r="H30" t="n">
-        <v>4390</v>
+        <v>4300</v>
       </c>
       <c r="I30" t="n">
-        <v>4395</v>
+        <v>4480</v>
       </c>
       <c r="J30" t="n">
-        <v>342</v>
-      </c>
-      <c r="K30" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>114</v>
+      </c>
+      <c r="L30" t="s">
+        <v>112</v>
+      </c>
+      <c r="M30" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>1460</v>
+        <v>1610</v>
       </c>
       <c r="G31" t="n">
-        <v>1465</v>
+        <v>1610</v>
       </c>
       <c r="H31" t="n">
-        <v>1460</v>
+        <v>1605</v>
       </c>
       <c r="I31" t="n">
-        <v>1465</v>
+        <v>1610</v>
       </c>
       <c r="J31" t="n">
-        <v>504</v>
-      </c>
-      <c r="K31" t="s">
-        <v>115</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.34</v>
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>430</v>
+      </c>
+      <c r="L31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="G32" t="n">
-        <v>1940</v>
+        <v>1930</v>
       </c>
       <c r="H32" t="n">
-        <v>1850</v>
+        <v>1900</v>
       </c>
       <c r="I32" t="n">
-        <v>1900</v>
+        <v>1925</v>
       </c>
       <c r="J32" t="n">
-        <v>289</v>
-      </c>
-      <c r="K32" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.34</v>
+        <v>0.26</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>1905</v>
+        <v>2250</v>
       </c>
       <c r="G33" t="n">
-        <v>1945</v>
+        <v>2250</v>
       </c>
       <c r="H33" t="n">
-        <v>1810</v>
+        <v>2100</v>
       </c>
       <c r="I33" t="n">
-        <v>1945</v>
+        <v>2250</v>
       </c>
       <c r="J33" t="n">
-        <v>12</v>
-      </c>
-      <c r="K33" t="s">
-        <v>121</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.26</v>
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>72</v>
+      </c>
+      <c r="L33" t="s">
+        <v>122</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="G34" t="n">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="H34" t="n">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="I34" t="n">
-        <v>1285</v>
+        <v>1255</v>
       </c>
       <c r="J34" t="n">
-        <v>258</v>
-      </c>
-      <c r="K34" t="s">
-        <v>124</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.18</v>
+        <v>-1.18</v>
+      </c>
+      <c r="K34" t="n">
+        <v>215</v>
+      </c>
+      <c r="L34" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="G35" t="n">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H35" t="n">
+        <v>520</v>
+      </c>
+      <c r="I35" t="n">
         <v>530</v>
       </c>
-      <c r="I35" t="n">
-        <v>535</v>
-      </c>
       <c r="J35" t="n">
-        <v>389</v>
-      </c>
-      <c r="K35" t="s">
-        <v>127</v>
-      </c>
-      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>122</v>
+      </c>
+      <c r="L35" t="s">
+        <v>128</v>
+      </c>
+      <c r="M35" t="n">
         <v>0.14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>445</v>
+        <v>1230</v>
       </c>
       <c r="G36" t="n">
-        <v>445</v>
+        <v>1230</v>
       </c>
       <c r="H36" t="n">
-        <v>440</v>
+        <v>1230</v>
       </c>
       <c r="I36" t="n">
-        <v>440</v>
+        <v>1230</v>
       </c>
       <c r="J36" t="n">
-        <v>94</v>
-      </c>
-      <c r="K36" t="s">
-        <v>130</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.11</v>
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8</v>
+      </c>
+      <c r="L36" t="s">
+        <v>131</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>610</v>
+        <v>465</v>
       </c>
       <c r="G37" t="n">
-        <v>670</v>
+        <v>470</v>
       </c>
       <c r="H37" t="n">
-        <v>610</v>
+        <v>465</v>
       </c>
       <c r="I37" t="n">
-        <v>670</v>
+        <v>465</v>
       </c>
       <c r="J37" t="n">
-        <v>2938</v>
-      </c>
-      <c r="K37" t="s">
-        <v>133</v>
-      </c>
-      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>162</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37" t="n">
         <v>0.11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>1225</v>
+        <v>645</v>
       </c>
       <c r="G38" t="n">
-        <v>1225</v>
+        <v>665</v>
       </c>
       <c r="H38" t="n">
-        <v>1225</v>
+        <v>645</v>
       </c>
       <c r="I38" t="n">
-        <v>1225</v>
+        <v>665</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>251</v>
+      </c>
+      <c r="L38" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>1025</v>
+        <v>1230</v>
       </c>
       <c r="G39" t="n">
-        <v>1025</v>
+        <v>1240</v>
       </c>
       <c r="H39" t="n">
-        <v>1015</v>
+        <v>1225</v>
       </c>
       <c r="I39" t="n">
-        <v>1025</v>
+        <v>1225</v>
       </c>
       <c r="J39" t="n">
-        <v>420</v>
-      </c>
-      <c r="K39" t="s">
-        <v>139</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.08</v>
+        <v>-0.41</v>
+      </c>
+      <c r="K39" t="n">
+        <v>70</v>
+      </c>
+      <c r="L39" t="s">
+        <v>140</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>3650</v>
+        <v>800</v>
       </c>
       <c r="G40" t="n">
-        <v>3650</v>
+        <v>800</v>
       </c>
       <c r="H40" t="n">
-        <v>3650</v>
+        <v>800</v>
       </c>
       <c r="I40" t="n">
-        <v>3650</v>
+        <v>800</v>
       </c>
       <c r="J40" t="n">
-        <v>55</v>
-      </c>
-      <c r="K40" t="s">
-        <v>142</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>5</v>
+      </c>
+      <c r="L40" t="s">
+        <v>143</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1155</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1160</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1100</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="K41" t="n">
+        <v>394</v>
+      </c>
+      <c r="L41" t="s">
+        <v>146</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/BRVM Excel R files/Realtime_BRVM.xlsx
+++ b/BRVM Excel R files/Realtime_BRVM.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">Ticker</t>
   </si>
@@ -65,10 +65,10 @@
     <t xml:space="preserve">SENEGAL</t>
   </si>
   <si>
-    <t xml:space="preserve">2024-04-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,900,000,000,000</t>
+    <t xml:space="preserve">2024-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,838,000,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORAC</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">IVORY COAST</t>
   </si>
   <si>
-    <t xml:space="preserve">1,633,857,270,750</t>
+    <t xml:space="preserve">1,717,470,990,000</t>
   </si>
   <si>
     <t xml:space="preserve">SGBC</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">SOCIETE GENERALE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">544,444,425,000</t>
+    <t xml:space="preserve">559,999,980,000</t>
   </si>
   <si>
     <t xml:space="preserve">ECOC</t>
@@ -101,7 +101,19 @@
     <t xml:space="preserve">ECOBANK COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">379,849,140,000</t>
+    <t xml:space="preserve">403,520,898,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CBIBF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORIS BANK INTERNATIONAL BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BURKINA FASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316,800,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ETIT</t>
@@ -113,19 +125,7 @@
     <t xml:space="preserve">TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">325,513,920,996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CBIBF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORIS BANK INTERNATIONAL BURKINA FASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURKINA FASO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">291,200,000,000</t>
+    <t xml:space="preserve">307,429,814,274</t>
   </si>
   <si>
     <t xml:space="preserve">SIBC</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">SOCIETE IVOIRIENNE DE BANQUE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">289,000,000,000</t>
+    <t xml:space="preserve">295,250,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">ONTBF</t>
@@ -143,7 +143,40 @@
     <t xml:space="preserve">ONATEL BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">163,200,000,000</t>
+    <t xml:space="preserve">184,620,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTLE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165,307,296,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA BENIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BENIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">148,859,046,160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">143,460,517,600</t>
   </si>
   <si>
     <t xml:space="preserve">BOABF</t>
@@ -152,7 +185,55 @@
     <t xml:space="preserve">BANK OF AFRICA BURKINA FASO</t>
   </si>
   <si>
-    <t xml:space="preserve">156,090,000,000</t>
+    <t xml:space="preserve">140,250,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">139,900,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BICI COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">138,333,361,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISTRIBUTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135,122,065,500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123,620,175,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TTLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTALENERGIES MARKETING COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120,571,464,000</t>
   </si>
   <si>
     <t xml:space="preserve">ORGT</t>
@@ -161,79 +242,16 @@
     <t xml:space="preserve">ORAGROUP TOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">152,018,917,890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NTLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INDUSTRY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NESTLE COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,182,240,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">144,000,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA BENIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BENIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141,558,057,520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFAC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DISTRIBUTION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CFAO MOTORS COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">141,470,082,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NSIA BANQUE COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">138,389,930,340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BICI COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123,333,358,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITAB COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">122,363,325,000</t>
+    <t xml:space="preserve">110,716,974,445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99,400,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">PALC</t>
@@ -245,16 +263,16 @@
     <t xml:space="preserve">PALM COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">114,398,938,400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TTLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">109,553,184,000</t>
+    <t xml:space="preserve">97,316,394,220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92,400,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">SMBC</t>
@@ -263,7 +281,7 @@
     <t xml:space="preserve">SMB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">87,968,832,000</t>
+    <t xml:space="preserve">91,983,360,000</t>
   </si>
   <si>
     <t xml:space="preserve">SDSC</t>
@@ -272,28 +290,31 @@
     <t xml:space="preserve">TRANSPORT</t>
   </si>
   <si>
-    <t xml:space="preserve">BOLLORE TRANSPORT &amp; LOGISTICS COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87,096,480,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIEC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIE COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87,080,000,000</t>
+    <t xml:space="preserve">AFRICA GLOBAL LOGISTICS COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,209,420,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANK OF AFRICA NIGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIGER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74,880,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">TTLS</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL SENEGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83,073,135,000</t>
+    <t xml:space="preserve">TOTALENERGIES MARKETING SENEGAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72,322,494,000</t>
   </si>
   <si>
     <t xml:space="preserve">SOGC</t>
@@ -302,28 +323,7 @@
     <t xml:space="preserve">SOGB COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">81,438,936,800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA SENEGAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80,400,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BANK OF AFRICA NIGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIGER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78,910,000,000</t>
+    <t xml:space="preserve">69,125,888,000</t>
   </si>
   <si>
     <t xml:space="preserve">SPHC</t>
@@ -332,7 +332,7 @@
     <t xml:space="preserve">SAPH COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">65,045,122,725</t>
+    <t xml:space="preserve">62,617,112,250</t>
   </si>
   <si>
     <t xml:space="preserve">SHEC</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">SODE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">40,320,000,000</t>
+    <t xml:space="preserve">46,305,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BOAM</t>
@@ -362,7 +362,16 @@
     <t xml:space="preserve">MALI</t>
   </si>
   <si>
-    <t xml:space="preserve">29,463,000,000</t>
+    <t xml:space="preserve">29,280,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRACTAFRIC MOTORS COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,244,800,000</t>
   </si>
   <si>
     <t xml:space="preserve">FTSC</t>
@@ -371,16 +380,7 @@
     <t xml:space="preserve">FILTISAC COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">27,149,699,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRACTAFRIC MOTORS COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23,040,000,000</t>
+    <t xml:space="preserve">19,745,236,000</t>
   </si>
   <si>
     <t xml:space="preserve">ABJC</t>
@@ -389,7 +389,37 @@
     <t xml:space="preserve">SERVAIR ABIDJAN  COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">13,694,560,000</t>
+    <t xml:space="preserve">19,041,440,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEI-CEDA COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,574,368,750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTHER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SETAO COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,475,200,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUCRIVOIRE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,212,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">UNXC</t>
@@ -398,34 +428,7 @@
     <t xml:space="preserve">UNIWAX COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">10,997,500,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAFCA COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,987,292,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUCRIVOIRE COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,114,000,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEI-CEDA COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,489,273,625</t>
+    <t xml:space="preserve">8,715,000,000</t>
   </si>
   <si>
     <t xml:space="preserve">BNBC</t>
@@ -434,7 +437,16 @@
     <t xml:space="preserve">BERNABE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">8,114,400,000</t>
+    <t xml:space="preserve">6,922,080,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SICABLE COTE D'IVOIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,245,600,000</t>
   </si>
   <si>
     <t xml:space="preserve">SIVC</t>
@@ -443,16 +455,7 @@
     <t xml:space="preserve">AIR LIQUIDE COTE D'IVOIRE</t>
   </si>
   <si>
-    <t xml:space="preserve">6,987,200,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CABC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SICABLE COTE D'IVOIRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6,512,000,000</t>
+    <t xml:space="preserve">5,677,100,000</t>
   </si>
 </sst>
 </file>
@@ -842,28 +845,28 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>19000</v>
+        <v>18390</v>
       </c>
       <c r="G2" t="n">
-        <v>19000</v>
+        <v>18485</v>
       </c>
       <c r="H2" t="n">
-        <v>18800</v>
+        <v>18030</v>
       </c>
       <c r="I2" t="n">
-        <v>19000</v>
+        <v>18380</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2661</v>
+        <v>3285</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
       </c>
       <c r="M2" t="n">
-        <v>23.34</v>
+        <v>22.44</v>
       </c>
     </row>
     <row r="3">
@@ -883,28 +886,28 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>10800</v>
+        <v>11175</v>
       </c>
       <c r="G3" t="n">
-        <v>10900</v>
+        <v>11495</v>
       </c>
       <c r="H3" t="n">
-        <v>10800</v>
+        <v>11175</v>
       </c>
       <c r="I3" t="n">
-        <v>10845</v>
+        <v>11400</v>
       </c>
       <c r="J3" t="n">
-        <v>0.42</v>
+        <v>2.01</v>
       </c>
       <c r="K3" t="n">
-        <v>6936</v>
+        <v>945</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>20.07</v>
+        <v>20.97</v>
       </c>
     </row>
     <row r="4">
@@ -924,28 +927,28 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
+        <v>17950</v>
+      </c>
+      <c r="G4" t="n">
         <v>18000</v>
       </c>
-      <c r="G4" t="n">
-        <v>18050</v>
-      </c>
       <c r="H4" t="n">
-        <v>17500</v>
+        <v>17950</v>
       </c>
       <c r="I4" t="n">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.78</v>
+        <v>0.28</v>
       </c>
       <c r="K4" t="n">
-        <v>362</v>
+        <v>1123</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
       </c>
       <c r="M4" t="n">
-        <v>6.69</v>
+        <v>6.84</v>
       </c>
     </row>
     <row r="5">
@@ -965,28 +968,28 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>6700</v>
+        <v>6850</v>
       </c>
       <c r="G5" t="n">
-        <v>6900</v>
+        <v>7330</v>
       </c>
       <c r="H5" t="n">
-        <v>6700</v>
+        <v>6820</v>
       </c>
       <c r="I5" t="n">
-        <v>6900</v>
+        <v>7330</v>
       </c>
       <c r="J5" t="n">
-        <v>2.99</v>
+        <v>7.01</v>
       </c>
       <c r="K5" t="n">
-        <v>9327</v>
+        <v>1693</v>
       </c>
       <c r="L5" t="s">
         <v>29</v>
       </c>
       <c r="M5" t="n">
-        <v>4.67</v>
+        <v>4.93</v>
       </c>
     </row>
     <row r="6">
@@ -1006,28 +1009,28 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>9475</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>9975</v>
       </c>
       <c r="H6" t="n">
-        <v>17</v>
+        <v>9455</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>9900</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.49</v>
       </c>
       <c r="K6" t="n">
-        <v>12230</v>
+        <v>439</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="7">
@@ -1047,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>9100</v>
+        <v>17</v>
       </c>
       <c r="G7" t="n">
-        <v>9100</v>
+        <v>17</v>
       </c>
       <c r="H7" t="n">
-        <v>9100</v>
+        <v>16</v>
       </c>
       <c r="I7" t="n">
-        <v>9100</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>60</v>
+        <v>500102</v>
       </c>
       <c r="L7" t="s">
         <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
@@ -1088,28 +1091,28 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>5800</v>
+        <v>5805</v>
       </c>
       <c r="G8" t="n">
-        <v>5840</v>
+        <v>5990</v>
       </c>
       <c r="H8" t="n">
-        <v>5780</v>
+        <v>5805</v>
       </c>
       <c r="I8" t="n">
-        <v>5780</v>
+        <v>5905</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.34</v>
+        <v>1.72</v>
       </c>
       <c r="K8" t="n">
-        <v>1192</v>
+        <v>6748</v>
       </c>
       <c r="L8" t="s">
         <v>40</v>
       </c>
       <c r="M8" t="n">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="9">
@@ -1123,34 +1126,34 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>2305</v>
+        <v>2705</v>
       </c>
       <c r="G9" t="n">
-        <v>2400</v>
+        <v>2730</v>
       </c>
       <c r="H9" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="I9" t="n">
-        <v>2400</v>
+        <v>2715</v>
       </c>
       <c r="J9" t="n">
-        <v>4.12</v>
+        <v>0.37</v>
       </c>
       <c r="K9" t="n">
-        <v>6173</v>
+        <v>12794</v>
       </c>
       <c r="L9" t="s">
         <v>43</v>
       </c>
       <c r="M9" t="n">
-        <v>2.01</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10">
@@ -1158,92 +1161,92 @@
         <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>7045</v>
+        <v>7400</v>
       </c>
       <c r="G10" t="n">
-        <v>7095</v>
+        <v>7490</v>
       </c>
       <c r="H10" t="n">
-        <v>7045</v>
+        <v>7105</v>
       </c>
       <c r="I10" t="n">
-        <v>7095</v>
+        <v>7490</v>
       </c>
       <c r="J10" t="n">
-        <v>0.71</v>
+        <v>1.22</v>
       </c>
       <c r="K10" t="n">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>2120</v>
+        <v>7315</v>
       </c>
       <c r="G11" t="n">
-        <v>2190</v>
+        <v>7340</v>
       </c>
       <c r="H11" t="n">
-        <v>2100</v>
+        <v>7305</v>
       </c>
       <c r="I11" t="n">
-        <v>2190</v>
+        <v>7340</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>0.34</v>
       </c>
       <c r="K11" t="n">
-        <v>580</v>
+        <v>3438</v>
       </c>
       <c r="L11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M11" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1252,110 +1255,110 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>6510</v>
+        <v>5800</v>
       </c>
       <c r="G12" t="n">
-        <v>6850</v>
+        <v>5800</v>
       </c>
       <c r="H12" t="n">
-        <v>6800</v>
+        <v>5795</v>
       </c>
       <c r="I12" t="n">
-        <v>6850</v>
+        <v>5800</v>
       </c>
       <c r="J12" t="n">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>69</v>
+        <v>711</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M12" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>7245</v>
+        <v>6345</v>
       </c>
       <c r="G13" t="n">
-        <v>7245</v>
+        <v>6375</v>
       </c>
       <c r="H13" t="n">
-        <v>7200</v>
+        <v>6340</v>
       </c>
       <c r="I13" t="n">
-        <v>7200</v>
+        <v>6375</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.62</v>
+        <v>0.47</v>
       </c>
       <c r="K13" t="n">
-        <v>17118</v>
+        <v>793</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>6985</v>
+        <v>7000</v>
       </c>
       <c r="G14" t="n">
-        <v>6985</v>
+        <v>7050</v>
       </c>
       <c r="H14" t="n">
-        <v>6980</v>
+        <v>6910</v>
       </c>
       <c r="I14" t="n">
-        <v>6980</v>
+        <v>6995</v>
       </c>
       <c r="J14" t="n">
         <v>-0.07</v>
       </c>
       <c r="K14" t="n">
-        <v>2819</v>
+        <v>734</v>
       </c>
       <c r="L14" t="s">
         <v>60</v>
       </c>
       <c r="M14" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="15">
@@ -1363,11 +1366,11 @@
         <v>61</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -1375,36 +1378,36 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>780</v>
+        <v>8300</v>
       </c>
       <c r="G15" t="n">
-        <v>780</v>
+        <v>8400</v>
       </c>
       <c r="H15" t="n">
-        <v>765</v>
+        <v>8300</v>
       </c>
       <c r="I15" t="n">
-        <v>780</v>
+        <v>8300</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>601</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>66</v>
@@ -1416,28 +1419,28 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>5550</v>
+        <v>745</v>
       </c>
       <c r="G16" t="n">
-        <v>5595</v>
+        <v>750</v>
       </c>
       <c r="H16" t="n">
-        <v>5550</v>
+        <v>745</v>
       </c>
       <c r="I16" t="n">
-        <v>5595</v>
+        <v>745</v>
       </c>
       <c r="J16" t="n">
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>46</v>
+        <v>424</v>
       </c>
       <c r="L16" t="s">
         <v>67</v>
       </c>
       <c r="M16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="17">
@@ -1445,7 +1448,7 @@
         <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
@@ -1457,28 +1460,28 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>6875</v>
+        <v>6800</v>
       </c>
       <c r="G17" t="n">
-        <v>7400</v>
+        <v>6895</v>
       </c>
       <c r="H17" t="n">
-        <v>6875</v>
+        <v>6380</v>
       </c>
       <c r="I17" t="n">
-        <v>7400</v>
+        <v>6885</v>
       </c>
       <c r="J17" t="n">
-        <v>7.64</v>
+        <v>1.25</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>2733</v>
       </c>
       <c r="L17" t="s">
         <v>70</v>
       </c>
       <c r="M17" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="18">
@@ -1486,7 +1489,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
         <v>72</v>
@@ -1498,28 +1501,28 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>6815</v>
+        <v>1910</v>
       </c>
       <c r="G18" t="n">
-        <v>6815</v>
+        <v>1925</v>
       </c>
       <c r="H18" t="n">
-        <v>6815</v>
+        <v>1910</v>
       </c>
       <c r="I18" t="n">
-        <v>6815</v>
+        <v>1915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="K18" t="n">
-        <v>130</v>
+        <v>1790</v>
       </c>
       <c r="L18" t="s">
         <v>73</v>
       </c>
       <c r="M18" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="19">
@@ -1527,51 +1530,51 @@
         <v>74</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>7400</v>
+        <v>1595</v>
       </c>
       <c r="G19" t="n">
-        <v>7400</v>
+        <v>1595</v>
       </c>
       <c r="H19" t="n">
-        <v>7395</v>
+        <v>1565</v>
       </c>
       <c r="I19" t="n">
-        <v>7400</v>
+        <v>1595</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>175</v>
+        <v>669</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -1583,33 +1586,33 @@
         <v>1750</v>
       </c>
       <c r="G20" t="n">
-        <v>1750</v>
+        <v>1775</v>
       </c>
       <c r="H20" t="n">
-        <v>1730</v>
+        <v>1740</v>
       </c>
       <c r="I20" t="n">
-        <v>1740</v>
+        <v>1775</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.57</v>
+        <v>1.43</v>
       </c>
       <c r="K20" t="n">
-        <v>825</v>
+        <v>4277</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" t="n">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
@@ -1621,28 +1624,28 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>11000</v>
+        <v>6300</v>
       </c>
       <c r="G21" t="n">
-        <v>11295</v>
+        <v>6330</v>
       </c>
       <c r="H21" t="n">
-        <v>11000</v>
+        <v>6200</v>
       </c>
       <c r="I21" t="n">
-        <v>11285</v>
+        <v>6295</v>
       </c>
       <c r="J21" t="n">
-        <v>2.59</v>
+        <v>-0.08</v>
       </c>
       <c r="K21" t="n">
-        <v>350</v>
+        <v>2229</v>
       </c>
       <c r="L21" t="s">
         <v>83</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="22">
@@ -1650,52 +1653,52 @@
         <v>84</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3750</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3850</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3800</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3850</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3509</v>
+      </c>
+      <c r="L22" t="s">
         <v>86</v>
       </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1600</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1595</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1600</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1208</v>
-      </c>
-      <c r="L22" t="s">
-        <v>87</v>
-      </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
       <c r="D23" t="s">
         <v>21</v>
       </c>
@@ -1703,69 +1706,69 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>1555</v>
+        <v>11800</v>
       </c>
       <c r="G23" t="n">
-        <v>1560</v>
+        <v>11990</v>
       </c>
       <c r="H23" t="n">
-        <v>1550</v>
+        <v>11800</v>
       </c>
       <c r="I23" t="n">
-        <v>1555</v>
+        <v>11800</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>20926</v>
+        <v>838</v>
       </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>62</v>
       </c>
       <c r="C24" t="s">
         <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>2450</v>
+        <v>1320</v>
       </c>
       <c r="G24" t="n">
-        <v>2550</v>
+        <v>1425</v>
       </c>
       <c r="H24" t="n">
-        <v>2450</v>
+        <v>1320</v>
       </c>
       <c r="I24" t="n">
-        <v>2550</v>
+        <v>1400</v>
       </c>
       <c r="J24" t="n">
-        <v>4.08</v>
+        <v>6.06</v>
       </c>
       <c r="K24" t="n">
-        <v>198</v>
+        <v>19697</v>
       </c>
       <c r="L24" t="s">
         <v>93</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="25">
@@ -1773,51 +1776,51 @@
         <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>3790</v>
+        <v>5760</v>
       </c>
       <c r="G25" t="n">
-        <v>3790</v>
+        <v>5770</v>
       </c>
       <c r="H25" t="n">
-        <v>3755</v>
+        <v>5760</v>
       </c>
       <c r="I25" t="n">
-        <v>3770</v>
+        <v>5760</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>373</v>
+        <v>1190</v>
       </c>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
@@ -1826,69 +1829,69 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>3390</v>
+        <v>2300</v>
       </c>
       <c r="G26" t="n">
-        <v>3390</v>
+        <v>2300</v>
       </c>
       <c r="H26" t="n">
-        <v>3350</v>
+        <v>2220</v>
       </c>
       <c r="I26" t="n">
-        <v>3350</v>
+        <v>2220</v>
       </c>
       <c r="J26" t="n">
-        <v>-1.18</v>
+        <v>-3.48</v>
       </c>
       <c r="K26" t="n">
-        <v>1739</v>
+        <v>928</v>
       </c>
       <c r="L26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M26" t="n">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E27" t="s">
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>6070</v>
+        <v>3195</v>
       </c>
       <c r="G27" t="n">
-        <v>6070</v>
+        <v>3200</v>
       </c>
       <c r="H27" t="n">
-        <v>6000</v>
+        <v>3190</v>
       </c>
       <c r="I27" t="n">
-        <v>6070</v>
+        <v>3200</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="K27" t="n">
-        <v>1611</v>
+        <v>2196</v>
       </c>
       <c r="L27" t="s">
         <v>103</v>
       </c>
       <c r="M27" t="n">
-        <v>0.97</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="28">
@@ -1896,7 +1899,7 @@
         <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>105</v>
@@ -1908,28 +1911,28 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>2550</v>
+        <v>2475</v>
       </c>
       <c r="G28" t="n">
-        <v>2550</v>
+        <v>2490</v>
       </c>
       <c r="H28" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I28" t="n">
-        <v>2545</v>
+        <v>2450</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.2</v>
+        <v>-1.01</v>
       </c>
       <c r="K28" t="n">
-        <v>551</v>
+        <v>628</v>
       </c>
       <c r="L28" t="s">
         <v>106</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="29">
@@ -1937,7 +1940,7 @@
         <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>108</v>
@@ -1949,22 +1952,22 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="G29" t="n">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="H29" t="n">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="I29" t="n">
         <v>780</v>
       </c>
       <c r="J29" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>2096</v>
+        <v>2784</v>
       </c>
       <c r="L29" t="s">
         <v>109</v>
@@ -1990,28 +1993,28 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>4480</v>
+        <v>5250</v>
       </c>
       <c r="G30" t="n">
-        <v>4495</v>
+        <v>5220</v>
       </c>
       <c r="H30" t="n">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="I30" t="n">
-        <v>4480</v>
+        <v>5145</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K30" t="n">
-        <v>114</v>
+        <v>2354</v>
       </c>
       <c r="L30" t="s">
         <v>112</v>
       </c>
       <c r="M30" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2034,22 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>1610</v>
+        <v>1575</v>
       </c>
       <c r="G31" t="n">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="H31" t="n">
-        <v>1605</v>
+        <v>1575</v>
       </c>
       <c r="I31" t="n">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="K31" t="n">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="L31" t="s">
         <v>116</v>
@@ -2060,7 +2063,7 @@
         <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>118</v>
@@ -2072,28 +2075,28 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>1920</v>
+        <v>2270</v>
       </c>
       <c r="G32" t="n">
-        <v>1930</v>
+        <v>2270</v>
       </c>
       <c r="H32" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="I32" t="n">
-        <v>1925</v>
+        <v>2270</v>
       </c>
       <c r="J32" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>2260</v>
+        <v>29</v>
       </c>
       <c r="L32" t="s">
         <v>119</v>
       </c>
       <c r="M32" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="33">
@@ -2101,7 +2104,7 @@
         <v>120</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
         <v>121</v>
@@ -2113,28 +2116,28 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>2250</v>
+        <v>1400</v>
       </c>
       <c r="G33" t="n">
-        <v>2250</v>
+        <v>1510</v>
       </c>
       <c r="H33" t="n">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="I33" t="n">
-        <v>2250</v>
+        <v>1400</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>72</v>
+        <v>1651</v>
       </c>
       <c r="L33" t="s">
         <v>122</v>
       </c>
       <c r="M33" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="34">
@@ -2142,7 +2145,7 @@
         <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
         <v>124</v>
@@ -2154,28 +2157,28 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>1270</v>
+        <v>1785</v>
       </c>
       <c r="G34" t="n">
-        <v>1270</v>
+        <v>1795</v>
       </c>
       <c r="H34" t="n">
-        <v>1255</v>
+        <v>1730</v>
       </c>
       <c r="I34" t="n">
-        <v>1255</v>
+        <v>1745</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.18</v>
+        <v>-2.24</v>
       </c>
       <c r="K34" t="n">
-        <v>215</v>
+        <v>2955</v>
       </c>
       <c r="L34" t="s">
         <v>125</v>
       </c>
       <c r="M34" t="n">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="35">
@@ -2183,7 +2186,7 @@
         <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>127</v>
@@ -2195,28 +2198,28 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>530</v>
+        <v>720</v>
       </c>
       <c r="G35" t="n">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="H35" t="n">
-        <v>520</v>
+        <v>715</v>
       </c>
       <c r="I35" t="n">
-        <v>530</v>
+        <v>750</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="K35" t="n">
-        <v>122</v>
+        <v>2038</v>
       </c>
       <c r="L35" t="s">
         <v>128</v>
       </c>
       <c r="M35" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36">
@@ -2224,10 +2227,10 @@
         <v>129</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>21</v>
@@ -2236,25 +2239,25 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>1230</v>
+        <v>745</v>
       </c>
       <c r="G36" t="n">
-        <v>1230</v>
+        <v>760</v>
       </c>
       <c r="H36" t="n">
-        <v>1230</v>
+        <v>705</v>
       </c>
       <c r="I36" t="n">
-        <v>1230</v>
+        <v>705</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-5.37</v>
       </c>
       <c r="K36" t="n">
-        <v>8</v>
+        <v>356</v>
       </c>
       <c r="L36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M36" t="n">
         <v>0.12</v>
@@ -2262,13 +2265,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>21</v>
@@ -2277,25 +2280,25 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="G37" t="n">
         <v>470</v>
       </c>
       <c r="H37" t="n">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="I37" t="n">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>162</v>
+        <v>1540</v>
       </c>
       <c r="L37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M37" t="n">
         <v>0.11</v>
@@ -2303,13 +2306,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
         <v>21</v>
@@ -2318,39 +2321,39 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>645</v>
+        <v>410</v>
       </c>
       <c r="G38" t="n">
-        <v>665</v>
+        <v>420</v>
       </c>
       <c r="H38" t="n">
-        <v>645</v>
+        <v>410</v>
       </c>
       <c r="I38" t="n">
-        <v>665</v>
+        <v>420</v>
       </c>
       <c r="J38" t="n">
-        <v>3.1</v>
+        <v>2.44</v>
       </c>
       <c r="K38" t="n">
-        <v>251</v>
+        <v>6046</v>
       </c>
       <c r="L38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
         <v>21</v>
@@ -2359,39 +2362,39 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>1230</v>
+        <v>1050</v>
       </c>
       <c r="G39" t="n">
-        <v>1240</v>
+        <v>1050</v>
       </c>
       <c r="H39" t="n">
-        <v>1225</v>
+        <v>1035</v>
       </c>
       <c r="I39" t="n">
-        <v>1225</v>
+        <v>1045</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.41</v>
+        <v>-0.48</v>
       </c>
       <c r="K39" t="n">
-        <v>70</v>
+        <v>509</v>
       </c>
       <c r="L39" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M39" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -2400,39 +2403,39 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>800</v>
+        <v>1090</v>
       </c>
       <c r="G40" t="n">
-        <v>800</v>
+        <v>1090</v>
       </c>
       <c r="H40" t="n">
-        <v>800</v>
+        <v>1055</v>
       </c>
       <c r="I40" t="n">
-        <v>800</v>
+        <v>1055</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-3.21</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="L40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M40" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -2441,28 +2444,28 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>1155</v>
+        <v>650</v>
       </c>
       <c r="G41" t="n">
-        <v>1160</v>
+        <v>650</v>
       </c>
       <c r="H41" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="I41" t="n">
-        <v>1100</v>
+        <v>650</v>
       </c>
       <c r="J41" t="n">
-        <v>-4.76</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>394</v>
+        <v>597</v>
       </c>
       <c r="L41" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M41" t="n">
-        <v>0.08</v>
+        <v>0.07</v>
       </c>
     </row>
   </sheetData>
